--- a/stockforecasting/688348_history.xlsx
+++ b/stockforecasting/688348_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K522"/>
+  <dimension ref="A1:K521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15330,3513 +15330,3513 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>69.29000000000001</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="C403" t="n">
-        <v>69.29000000000001</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="D403" t="n">
-        <v>69.5</v>
+        <v>70.06</v>
       </c>
       <c r="E403" t="n">
-        <v>66.86</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="F403" t="n">
-        <v>19564</v>
+        <v>15613</v>
       </c>
       <c r="G403" t="n">
-        <v>188613.78</v>
+        <v>151601.93</v>
       </c>
       <c r="H403" t="n">
-        <v>3.81</v>
+        <v>4</v>
       </c>
       <c r="I403" t="n">
-        <v>0</v>
+        <v>-2.89</v>
       </c>
       <c r="J403" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K403" t="n">
-        <v>3.38</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>68.70999999999999</v>
+        <v>68.94</v>
       </c>
       <c r="C404" t="n">
-        <v>67.29000000000001</v>
+        <v>65.16</v>
       </c>
       <c r="D404" t="n">
-        <v>70.06</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="E404" t="n">
-        <v>67.29000000000001</v>
+        <v>65.09</v>
       </c>
       <c r="F404" t="n">
-        <v>15613</v>
+        <v>25882</v>
       </c>
       <c r="G404" t="n">
-        <v>151601.93</v>
+        <v>251826.41</v>
       </c>
       <c r="H404" t="n">
-        <v>4</v>
+        <v>11.12</v>
       </c>
       <c r="I404" t="n">
-        <v>-2.89</v>
+        <v>-3.17</v>
       </c>
       <c r="J404" t="n">
-        <v>-2</v>
+        <v>-2.13</v>
       </c>
       <c r="K404" t="n">
-        <v>2.7</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>68.94</v>
+        <v>63.85</v>
       </c>
       <c r="C405" t="n">
-        <v>65.16</v>
+        <v>61.04</v>
       </c>
       <c r="D405" t="n">
-        <v>72.56999999999999</v>
+        <v>64.75</v>
       </c>
       <c r="E405" t="n">
-        <v>65.09</v>
+        <v>60.57</v>
       </c>
       <c r="F405" t="n">
-        <v>25882</v>
+        <v>21629</v>
       </c>
       <c r="G405" t="n">
-        <v>251826.41</v>
+        <v>190179.26</v>
       </c>
       <c r="H405" t="n">
-        <v>11.12</v>
+        <v>6.41</v>
       </c>
       <c r="I405" t="n">
-        <v>-3.17</v>
+        <v>-6.32</v>
       </c>
       <c r="J405" t="n">
-        <v>-2.13</v>
+        <v>-4.12</v>
       </c>
       <c r="K405" t="n">
-        <v>4.47</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>63.85</v>
+        <v>61.14</v>
       </c>
       <c r="C406" t="n">
-        <v>61.04</v>
+        <v>56.86</v>
       </c>
       <c r="D406" t="n">
-        <v>64.75</v>
+        <v>61.32</v>
       </c>
       <c r="E406" t="n">
-        <v>60.57</v>
+        <v>56.8</v>
       </c>
       <c r="F406" t="n">
-        <v>21629</v>
+        <v>20494</v>
       </c>
       <c r="G406" t="n">
-        <v>190179.26</v>
+        <v>171169.32</v>
       </c>
       <c r="H406" t="n">
-        <v>6.41</v>
+        <v>7.4</v>
       </c>
       <c r="I406" t="n">
-        <v>-6.32</v>
+        <v>-6.85</v>
       </c>
       <c r="J406" t="n">
-        <v>-4.12</v>
+        <v>-4.18</v>
       </c>
       <c r="K406" t="n">
-        <v>3.74</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>61.14</v>
+        <v>56.71</v>
       </c>
       <c r="C407" t="n">
-        <v>56.86</v>
+        <v>56.31</v>
       </c>
       <c r="D407" t="n">
-        <v>61.32</v>
+        <v>59.06</v>
       </c>
       <c r="E407" t="n">
-        <v>56.8</v>
+        <v>56.07</v>
       </c>
       <c r="F407" t="n">
-        <v>20494</v>
+        <v>20453</v>
       </c>
       <c r="G407" t="n">
-        <v>171169.32</v>
+        <v>166886.46</v>
       </c>
       <c r="H407" t="n">
-        <v>7.4</v>
+        <v>5.26</v>
       </c>
       <c r="I407" t="n">
-        <v>-6.85</v>
+        <v>-0.97</v>
       </c>
       <c r="J407" t="n">
-        <v>-4.18</v>
+        <v>-0.55</v>
       </c>
       <c r="K407" t="n">
-        <v>3.54</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>56.71</v>
+        <v>57.07</v>
       </c>
       <c r="C408" t="n">
-        <v>56.31</v>
+        <v>54.29</v>
       </c>
       <c r="D408" t="n">
-        <v>59.06</v>
+        <v>57.19</v>
       </c>
       <c r="E408" t="n">
-        <v>56.07</v>
+        <v>51.27</v>
       </c>
       <c r="F408" t="n">
-        <v>20453</v>
+        <v>23363</v>
       </c>
       <c r="G408" t="n">
-        <v>166886.46</v>
+        <v>180162.49</v>
       </c>
       <c r="H408" t="n">
-        <v>5.26</v>
+        <v>10.51</v>
       </c>
       <c r="I408" t="n">
-        <v>-0.97</v>
+        <v>-3.59</v>
       </c>
       <c r="J408" t="n">
-        <v>-0.55</v>
+        <v>-2.02</v>
       </c>
       <c r="K408" t="n">
-        <v>3.53</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>57.07</v>
+        <v>52.86</v>
       </c>
       <c r="C409" t="n">
-        <v>54.29</v>
+        <v>51.06</v>
       </c>
       <c r="D409" t="n">
-        <v>57.19</v>
+        <v>53.24</v>
       </c>
       <c r="E409" t="n">
-        <v>51.27</v>
+        <v>47.19</v>
       </c>
       <c r="F409" t="n">
-        <v>23363</v>
+        <v>23124</v>
       </c>
       <c r="G409" t="n">
-        <v>180162.49</v>
+        <v>165599.86</v>
       </c>
       <c r="H409" t="n">
-        <v>10.51</v>
+        <v>11.14</v>
       </c>
       <c r="I409" t="n">
-        <v>-3.59</v>
+        <v>-5.95</v>
       </c>
       <c r="J409" t="n">
-        <v>-2.02</v>
+        <v>-3.23</v>
       </c>
       <c r="K409" t="n">
-        <v>4.04</v>
+        <v>4</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>52.86</v>
+        <v>49.86</v>
       </c>
       <c r="C410" t="n">
-        <v>51.06</v>
+        <v>56.85</v>
       </c>
       <c r="D410" t="n">
-        <v>53.24</v>
+        <v>57.06</v>
       </c>
       <c r="E410" t="n">
-        <v>47.19</v>
+        <v>48.44</v>
       </c>
       <c r="F410" t="n">
-        <v>23124</v>
+        <v>25656</v>
       </c>
       <c r="G410" t="n">
-        <v>165599.86</v>
+        <v>190843.15</v>
       </c>
       <c r="H410" t="n">
-        <v>11.14</v>
+        <v>16.88</v>
       </c>
       <c r="I410" t="n">
-        <v>-5.95</v>
+        <v>11.34</v>
       </c>
       <c r="J410" t="n">
-        <v>-3.23</v>
+        <v>5.79</v>
       </c>
       <c r="K410" t="n">
-        <v>4</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>49.86</v>
+        <v>56.41</v>
       </c>
       <c r="C411" t="n">
-        <v>56.85</v>
+        <v>58.71</v>
       </c>
       <c r="D411" t="n">
-        <v>57.06</v>
+        <v>61.18</v>
       </c>
       <c r="E411" t="n">
-        <v>48.44</v>
+        <v>56.41</v>
       </c>
       <c r="F411" t="n">
-        <v>25656</v>
+        <v>27815</v>
       </c>
       <c r="G411" t="n">
-        <v>190843.15</v>
+        <v>231952.95</v>
       </c>
       <c r="H411" t="n">
-        <v>16.88</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="I411" t="n">
-        <v>11.34</v>
+        <v>3.27</v>
       </c>
       <c r="J411" t="n">
-        <v>5.79</v>
+        <v>1.86</v>
       </c>
       <c r="K411" t="n">
-        <v>4.43</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>56.41</v>
+        <v>59.27</v>
       </c>
       <c r="C412" t="n">
-        <v>58.71</v>
+        <v>60.61</v>
       </c>
       <c r="D412" t="n">
-        <v>61.18</v>
+        <v>61.99</v>
       </c>
       <c r="E412" t="n">
-        <v>56.41</v>
+        <v>57.36</v>
       </c>
       <c r="F412" t="n">
-        <v>27815</v>
+        <v>22842</v>
       </c>
       <c r="G412" t="n">
-        <v>231952.95</v>
+        <v>194452.42</v>
       </c>
       <c r="H412" t="n">
-        <v>8.390000000000001</v>
+        <v>7.89</v>
       </c>
       <c r="I412" t="n">
-        <v>3.27</v>
+        <v>3.24</v>
       </c>
       <c r="J412" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="K412" t="n">
-        <v>4.81</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-02-19</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>59.27</v>
+        <v>59.81</v>
       </c>
       <c r="C413" t="n">
-        <v>60.61</v>
+        <v>58.55</v>
       </c>
       <c r="D413" t="n">
-        <v>61.99</v>
+        <v>59.81</v>
       </c>
       <c r="E413" t="n">
-        <v>57.36</v>
+        <v>57.89</v>
       </c>
       <c r="F413" t="n">
-        <v>22842</v>
+        <v>17180</v>
       </c>
       <c r="G413" t="n">
-        <v>194452.42</v>
+        <v>143047.48</v>
       </c>
       <c r="H413" t="n">
-        <v>7.89</v>
+        <v>3.17</v>
       </c>
       <c r="I413" t="n">
-        <v>3.24</v>
+        <v>-3.4</v>
       </c>
       <c r="J413" t="n">
-        <v>1.9</v>
+        <v>-2.06</v>
       </c>
       <c r="K413" t="n">
-        <v>3.95</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>59.81</v>
+        <v>58.48</v>
       </c>
       <c r="C414" t="n">
-        <v>58.55</v>
+        <v>58.19</v>
       </c>
       <c r="D414" t="n">
-        <v>59.81</v>
+        <v>58.57</v>
       </c>
       <c r="E414" t="n">
-        <v>57.89</v>
+        <v>56.49</v>
       </c>
       <c r="F414" t="n">
-        <v>17180</v>
+        <v>15905</v>
       </c>
       <c r="G414" t="n">
-        <v>143047.48</v>
+        <v>129604.84</v>
       </c>
       <c r="H414" t="n">
-        <v>3.17</v>
+        <v>3.55</v>
       </c>
       <c r="I414" t="n">
-        <v>-3.4</v>
+        <v>-0.61</v>
       </c>
       <c r="J414" t="n">
-        <v>-2.06</v>
+        <v>-0.36</v>
       </c>
       <c r="K414" t="n">
-        <v>2.97</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>58.48</v>
+        <v>57.88</v>
       </c>
       <c r="C415" t="n">
-        <v>58.19</v>
+        <v>59.9</v>
       </c>
       <c r="D415" t="n">
-        <v>58.57</v>
+        <v>61.34</v>
       </c>
       <c r="E415" t="n">
-        <v>56.49</v>
+        <v>57.16</v>
       </c>
       <c r="F415" t="n">
-        <v>15905</v>
+        <v>21969</v>
       </c>
       <c r="G415" t="n">
-        <v>129604.84</v>
+        <v>186183.8</v>
       </c>
       <c r="H415" t="n">
-        <v>3.55</v>
+        <v>7.18</v>
       </c>
       <c r="I415" t="n">
-        <v>-0.61</v>
+        <v>2.94</v>
       </c>
       <c r="J415" t="n">
-        <v>-0.36</v>
+        <v>1.71</v>
       </c>
       <c r="K415" t="n">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>57.88</v>
+        <v>58.91</v>
       </c>
       <c r="C416" t="n">
-        <v>59.9</v>
+        <v>60.14</v>
       </c>
       <c r="D416" t="n">
-        <v>61.34</v>
+        <v>62.04</v>
       </c>
       <c r="E416" t="n">
-        <v>57.16</v>
+        <v>58.75</v>
       </c>
       <c r="F416" t="n">
-        <v>21969</v>
+        <v>15317</v>
       </c>
       <c r="G416" t="n">
-        <v>186183.8</v>
+        <v>129921.76</v>
       </c>
       <c r="H416" t="n">
-        <v>7.18</v>
+        <v>5.49</v>
       </c>
       <c r="I416" t="n">
-        <v>2.94</v>
+        <v>0.4</v>
       </c>
       <c r="J416" t="n">
-        <v>1.71</v>
+        <v>0.24</v>
       </c>
       <c r="K416" t="n">
-        <v>3.8</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-02-23</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>58.91</v>
+        <v>60.64</v>
       </c>
       <c r="C417" t="n">
-        <v>60.14</v>
+        <v>61.79</v>
       </c>
       <c r="D417" t="n">
-        <v>62.04</v>
+        <v>62</v>
       </c>
       <c r="E417" t="n">
-        <v>58.75</v>
+        <v>60.37</v>
       </c>
       <c r="F417" t="n">
-        <v>15317</v>
+        <v>22607</v>
       </c>
       <c r="G417" t="n">
-        <v>129921.76</v>
+        <v>196087.84</v>
       </c>
       <c r="H417" t="n">
-        <v>5.49</v>
+        <v>2.71</v>
       </c>
       <c r="I417" t="n">
-        <v>0.4</v>
+        <v>2.74</v>
       </c>
       <c r="J417" t="n">
-        <v>0.24</v>
+        <v>1.65</v>
       </c>
       <c r="K417" t="n">
-        <v>2.65</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>60.64</v>
+        <v>61.07</v>
       </c>
       <c r="C418" t="n">
-        <v>61.79</v>
+        <v>60.96</v>
       </c>
       <c r="D418" t="n">
-        <v>62</v>
+        <v>62.14</v>
       </c>
       <c r="E418" t="n">
-        <v>60.37</v>
+        <v>59.71</v>
       </c>
       <c r="F418" t="n">
-        <v>22607</v>
+        <v>20288</v>
       </c>
       <c r="G418" t="n">
-        <v>196087.84</v>
+        <v>175255.67</v>
       </c>
       <c r="H418" t="n">
-        <v>2.71</v>
+        <v>3.93</v>
       </c>
       <c r="I418" t="n">
-        <v>2.74</v>
+        <v>-1.34</v>
       </c>
       <c r="J418" t="n">
-        <v>1.65</v>
+        <v>-0.83</v>
       </c>
       <c r="K418" t="n">
-        <v>3.91</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>61.07</v>
+        <v>60.67</v>
       </c>
       <c r="C419" t="n">
-        <v>60.96</v>
+        <v>62.66</v>
       </c>
       <c r="D419" t="n">
-        <v>62.14</v>
+        <v>62.66</v>
       </c>
       <c r="E419" t="n">
-        <v>59.71</v>
+        <v>60.01</v>
       </c>
       <c r="F419" t="n">
-        <v>20288</v>
+        <v>17714</v>
       </c>
       <c r="G419" t="n">
-        <v>175255.67</v>
+        <v>154086.35</v>
       </c>
       <c r="H419" t="n">
-        <v>3.93</v>
+        <v>4.35</v>
       </c>
       <c r="I419" t="n">
-        <v>-1.34</v>
+        <v>2.79</v>
       </c>
       <c r="J419" t="n">
-        <v>-0.83</v>
+        <v>1.7</v>
       </c>
       <c r="K419" t="n">
-        <v>3.51</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>60.67</v>
+        <v>63.36</v>
       </c>
       <c r="C420" t="n">
-        <v>62.66</v>
+        <v>59.36</v>
       </c>
       <c r="D420" t="n">
-        <v>62.66</v>
+        <v>66.37</v>
       </c>
       <c r="E420" t="n">
-        <v>60.01</v>
+        <v>59.36</v>
       </c>
       <c r="F420" t="n">
-        <v>17714</v>
+        <v>31334</v>
       </c>
       <c r="G420" t="n">
-        <v>154086.35</v>
+        <v>282610.1</v>
       </c>
       <c r="H420" t="n">
-        <v>4.35</v>
+        <v>11.19</v>
       </c>
       <c r="I420" t="n">
-        <v>2.79</v>
+        <v>-5.27</v>
       </c>
       <c r="J420" t="n">
-        <v>1.7</v>
+        <v>-3.3</v>
       </c>
       <c r="K420" t="n">
-        <v>3.06</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>63.36</v>
+        <v>58.21</v>
       </c>
       <c r="C421" t="n">
-        <v>59.36</v>
+        <v>61.35</v>
       </c>
       <c r="D421" t="n">
-        <v>66.37</v>
+        <v>61.63</v>
       </c>
       <c r="E421" t="n">
-        <v>59.36</v>
+        <v>58.14</v>
       </c>
       <c r="F421" t="n">
-        <v>31334</v>
+        <v>20246</v>
       </c>
       <c r="G421" t="n">
-        <v>282610.1</v>
+        <v>173391.59</v>
       </c>
       <c r="H421" t="n">
-        <v>11.19</v>
+        <v>5.88</v>
       </c>
       <c r="I421" t="n">
-        <v>-5.27</v>
+        <v>3.35</v>
       </c>
       <c r="J421" t="n">
-        <v>-3.3</v>
+        <v>1.99</v>
       </c>
       <c r="K421" t="n">
-        <v>5.42</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>58.21</v>
+        <v>61.51</v>
       </c>
       <c r="C422" t="n">
-        <v>61.35</v>
+        <v>61.81</v>
       </c>
       <c r="D422" t="n">
-        <v>61.63</v>
+        <v>62.29</v>
       </c>
       <c r="E422" t="n">
-        <v>58.14</v>
+        <v>60.35</v>
       </c>
       <c r="F422" t="n">
-        <v>20246</v>
+        <v>15237</v>
       </c>
       <c r="G422" t="n">
-        <v>173391.59</v>
+        <v>132584.49</v>
       </c>
       <c r="H422" t="n">
-        <v>5.88</v>
+        <v>3.16</v>
       </c>
       <c r="I422" t="n">
-        <v>3.35</v>
+        <v>0.75</v>
       </c>
       <c r="J422" t="n">
-        <v>1.99</v>
+        <v>0.46</v>
       </c>
       <c r="K422" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>61.51</v>
+        <v>62.13</v>
       </c>
       <c r="C423" t="n">
-        <v>61.81</v>
+        <v>61.36</v>
       </c>
       <c r="D423" t="n">
-        <v>62.29</v>
+        <v>63</v>
       </c>
       <c r="E423" t="n">
-        <v>60.35</v>
+        <v>60.79</v>
       </c>
       <c r="F423" t="n">
-        <v>15237</v>
+        <v>14482</v>
       </c>
       <c r="G423" t="n">
-        <v>132584.49</v>
+        <v>126575.66</v>
       </c>
       <c r="H423" t="n">
-        <v>3.16</v>
+        <v>3.58</v>
       </c>
       <c r="I423" t="n">
-        <v>0.75</v>
+        <v>-0.73</v>
       </c>
       <c r="J423" t="n">
-        <v>0.46</v>
+        <v>-0.45</v>
       </c>
       <c r="K423" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>62.13</v>
+        <v>61.29</v>
       </c>
       <c r="C424" t="n">
-        <v>61.36</v>
+        <v>59.38</v>
       </c>
       <c r="D424" t="n">
-        <v>63</v>
+        <v>61.29</v>
       </c>
       <c r="E424" t="n">
-        <v>60.79</v>
+        <v>59.06</v>
       </c>
       <c r="F424" t="n">
-        <v>14482</v>
+        <v>16661</v>
       </c>
       <c r="G424" t="n">
-        <v>126575.66</v>
+        <v>140722.44</v>
       </c>
       <c r="H424" t="n">
-        <v>3.58</v>
+        <v>3.63</v>
       </c>
       <c r="I424" t="n">
-        <v>-0.73</v>
+        <v>-3.23</v>
       </c>
       <c r="J424" t="n">
-        <v>-0.45</v>
+        <v>-1.98</v>
       </c>
       <c r="K424" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>61.29</v>
+        <v>58.71</v>
       </c>
       <c r="C425" t="n">
-        <v>59.38</v>
+        <v>61.42</v>
       </c>
       <c r="D425" t="n">
-        <v>61.29</v>
+        <v>62.56</v>
       </c>
       <c r="E425" t="n">
-        <v>59.06</v>
+        <v>58.57</v>
       </c>
       <c r="F425" t="n">
-        <v>16661</v>
+        <v>21126</v>
       </c>
       <c r="G425" t="n">
-        <v>140722.44</v>
+        <v>181764.16</v>
       </c>
       <c r="H425" t="n">
-        <v>3.63</v>
+        <v>6.72</v>
       </c>
       <c r="I425" t="n">
-        <v>-3.23</v>
+        <v>3.44</v>
       </c>
       <c r="J425" t="n">
-        <v>-1.98</v>
+        <v>2.04</v>
       </c>
       <c r="K425" t="n">
-        <v>2.88</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>58.71</v>
+        <v>61.21</v>
       </c>
       <c r="C426" t="n">
-        <v>61.42</v>
+        <v>59.04</v>
       </c>
       <c r="D426" t="n">
-        <v>62.56</v>
+        <v>61.79</v>
       </c>
       <c r="E426" t="n">
-        <v>58.57</v>
+        <v>58.93</v>
       </c>
       <c r="F426" t="n">
-        <v>21126</v>
+        <v>19883</v>
       </c>
       <c r="G426" t="n">
-        <v>181764.16</v>
+        <v>168948.15</v>
       </c>
       <c r="H426" t="n">
-        <v>6.72</v>
+        <v>4.66</v>
       </c>
       <c r="I426" t="n">
+        <v>-3.87</v>
+      </c>
+      <c r="J426" t="n">
+        <v>-2.38</v>
+      </c>
+      <c r="K426" t="n">
         <v>3.44</v>
-      </c>
-      <c r="J426" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="K426" t="n">
-        <v>3.65</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>61.21</v>
+        <v>58.74</v>
       </c>
       <c r="C427" t="n">
-        <v>59.04</v>
+        <v>61.73</v>
       </c>
       <c r="D427" t="n">
-        <v>61.79</v>
+        <v>61.73</v>
       </c>
       <c r="E427" t="n">
-        <v>58.93</v>
+        <v>58.74</v>
       </c>
       <c r="F427" t="n">
-        <v>19883</v>
+        <v>40469</v>
       </c>
       <c r="G427" t="n">
-        <v>168948.15</v>
+        <v>347397.22</v>
       </c>
       <c r="H427" t="n">
-        <v>4.66</v>
+        <v>5.06</v>
       </c>
       <c r="I427" t="n">
-        <v>-3.87</v>
+        <v>4.56</v>
       </c>
       <c r="J427" t="n">
-        <v>-2.38</v>
+        <v>2.69</v>
       </c>
       <c r="K427" t="n">
-        <v>3.44</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>58.74</v>
+        <v>62.02</v>
       </c>
       <c r="C428" t="n">
-        <v>61.73</v>
+        <v>65.38</v>
       </c>
       <c r="D428" t="n">
-        <v>61.73</v>
+        <v>66.34</v>
       </c>
       <c r="E428" t="n">
-        <v>58.74</v>
+        <v>62.02</v>
       </c>
       <c r="F428" t="n">
-        <v>40469</v>
+        <v>42175</v>
       </c>
       <c r="G428" t="n">
-        <v>347397.22</v>
+        <v>382761.11</v>
       </c>
       <c r="H428" t="n">
-        <v>5.06</v>
+        <v>7</v>
       </c>
       <c r="I428" t="n">
-        <v>4.56</v>
+        <v>5.91</v>
       </c>
       <c r="J428" t="n">
-        <v>2.69</v>
+        <v>3.65</v>
       </c>
       <c r="K428" t="n">
-        <v>6.99</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>62.02</v>
+        <v>65.86</v>
       </c>
       <c r="C429" t="n">
-        <v>65.38</v>
+        <v>63.97</v>
       </c>
       <c r="D429" t="n">
-        <v>66.34</v>
+        <v>65.86</v>
       </c>
       <c r="E429" t="n">
-        <v>62.02</v>
+        <v>63.76</v>
       </c>
       <c r="F429" t="n">
-        <v>42175</v>
+        <v>25522</v>
       </c>
       <c r="G429" t="n">
-        <v>382761.11</v>
+        <v>233265.06</v>
       </c>
       <c r="H429" t="n">
-        <v>7</v>
+        <v>3.21</v>
       </c>
       <c r="I429" t="n">
-        <v>5.91</v>
+        <v>-2.16</v>
       </c>
       <c r="J429" t="n">
-        <v>3.65</v>
+        <v>-1.41</v>
       </c>
       <c r="K429" t="n">
-        <v>7.29</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>65.86</v>
+        <v>63.74</v>
       </c>
       <c r="C430" t="n">
-        <v>63.97</v>
+        <v>63.86</v>
       </c>
       <c r="D430" t="n">
-        <v>65.86</v>
+        <v>64.91</v>
       </c>
       <c r="E430" t="n">
-        <v>63.76</v>
+        <v>63.24</v>
       </c>
       <c r="F430" t="n">
-        <v>25522</v>
+        <v>17639</v>
       </c>
       <c r="G430" t="n">
-        <v>233265.06</v>
+        <v>159537.61</v>
       </c>
       <c r="H430" t="n">
-        <v>3.21</v>
+        <v>2.61</v>
       </c>
       <c r="I430" t="n">
-        <v>-2.16</v>
+        <v>-0.17</v>
       </c>
       <c r="J430" t="n">
-        <v>-1.41</v>
+        <v>-0.11</v>
       </c>
       <c r="K430" t="n">
-        <v>4.41</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>63.74</v>
+        <v>63.29</v>
       </c>
       <c r="C431" t="n">
-        <v>63.86</v>
+        <v>62.61</v>
       </c>
       <c r="D431" t="n">
-        <v>64.91</v>
+        <v>64.14</v>
       </c>
       <c r="E431" t="n">
-        <v>63.24</v>
+        <v>61.87</v>
       </c>
       <c r="F431" t="n">
-        <v>17639</v>
+        <v>16041</v>
       </c>
       <c r="G431" t="n">
-        <v>159537.61</v>
+        <v>142850.31</v>
       </c>
       <c r="H431" t="n">
-        <v>2.61</v>
+        <v>3.55</v>
       </c>
       <c r="I431" t="n">
-        <v>-0.17</v>
+        <v>-1.96</v>
       </c>
       <c r="J431" t="n">
-        <v>-0.11</v>
+        <v>-1.25</v>
       </c>
       <c r="K431" t="n">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>63.29</v>
+        <v>62.16</v>
       </c>
       <c r="C432" t="n">
-        <v>62.61</v>
+        <v>61.96</v>
       </c>
       <c r="D432" t="n">
-        <v>64.14</v>
+        <v>63.11</v>
       </c>
       <c r="E432" t="n">
-        <v>61.87</v>
+        <v>61.31</v>
       </c>
       <c r="F432" t="n">
-        <v>16041</v>
+        <v>14183</v>
       </c>
       <c r="G432" t="n">
-        <v>142850.31</v>
+        <v>124429.47</v>
       </c>
       <c r="H432" t="n">
-        <v>3.55</v>
+        <v>2.87</v>
       </c>
       <c r="I432" t="n">
-        <v>-1.96</v>
+        <v>-1.04</v>
       </c>
       <c r="J432" t="n">
-        <v>-1.25</v>
+        <v>-0.65</v>
       </c>
       <c r="K432" t="n">
-        <v>2.77</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>62.16</v>
+        <v>62.43</v>
       </c>
       <c r="C433" t="n">
-        <v>61.96</v>
+        <v>63.1</v>
       </c>
       <c r="D433" t="n">
-        <v>63.11</v>
+        <v>63.34</v>
       </c>
       <c r="E433" t="n">
-        <v>61.31</v>
+        <v>62</v>
       </c>
       <c r="F433" t="n">
-        <v>14183</v>
+        <v>15021</v>
       </c>
       <c r="G433" t="n">
-        <v>124429.47</v>
+        <v>133197.14</v>
       </c>
       <c r="H433" t="n">
-        <v>2.87</v>
+        <v>2.16</v>
       </c>
       <c r="I433" t="n">
-        <v>-1.04</v>
+        <v>1.84</v>
       </c>
       <c r="J433" t="n">
-        <v>-0.65</v>
+        <v>1.14</v>
       </c>
       <c r="K433" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>62.43</v>
+        <v>63.07</v>
       </c>
       <c r="C434" t="n">
-        <v>63.1</v>
+        <v>61.63</v>
       </c>
       <c r="D434" t="n">
-        <v>63.34</v>
+        <v>64.06</v>
       </c>
       <c r="E434" t="n">
-        <v>62</v>
+        <v>61.57</v>
       </c>
       <c r="F434" t="n">
-        <v>15021</v>
+        <v>14824</v>
       </c>
       <c r="G434" t="n">
-        <v>133197.14</v>
+        <v>131761.46</v>
       </c>
       <c r="H434" t="n">
-        <v>2.16</v>
+        <v>3.95</v>
       </c>
       <c r="I434" t="n">
-        <v>1.84</v>
+        <v>-2.33</v>
       </c>
       <c r="J434" t="n">
-        <v>1.14</v>
+        <v>-1.47</v>
       </c>
       <c r="K434" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B435" t="n">
+        <v>62</v>
+      </c>
+      <c r="C435" t="n">
+        <v>62.05</v>
+      </c>
+      <c r="D435" t="n">
         <v>63.07</v>
       </c>
-      <c r="C435" t="n">
-        <v>61.63</v>
-      </c>
-      <c r="D435" t="n">
-        <v>64.06</v>
-      </c>
       <c r="E435" t="n">
-        <v>61.57</v>
+        <v>61.51</v>
       </c>
       <c r="F435" t="n">
-        <v>14824</v>
+        <v>13587</v>
       </c>
       <c r="G435" t="n">
-        <v>131761.46</v>
+        <v>119474.51</v>
       </c>
       <c r="H435" t="n">
-        <v>3.95</v>
+        <v>2.53</v>
       </c>
       <c r="I435" t="n">
-        <v>-2.33</v>
+        <v>0.68</v>
       </c>
       <c r="J435" t="n">
-        <v>-1.47</v>
+        <v>0.42</v>
       </c>
       <c r="K435" t="n">
-        <v>2.56</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>62</v>
+        <v>61.82</v>
       </c>
       <c r="C436" t="n">
-        <v>62.05</v>
+        <v>59.93</v>
       </c>
       <c r="D436" t="n">
-        <v>63.07</v>
+        <v>62.41</v>
       </c>
       <c r="E436" t="n">
-        <v>61.51</v>
+        <v>59.86</v>
       </c>
       <c r="F436" t="n">
-        <v>13587</v>
+        <v>19305</v>
       </c>
       <c r="G436" t="n">
-        <v>119474.51</v>
+        <v>165659.55</v>
       </c>
       <c r="H436" t="n">
-        <v>2.53</v>
+        <v>4.11</v>
       </c>
       <c r="I436" t="n">
-        <v>0.68</v>
+        <v>-3.42</v>
       </c>
       <c r="J436" t="n">
-        <v>0.42</v>
+        <v>-2.12</v>
       </c>
       <c r="K436" t="n">
-        <v>2.35</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>61.82</v>
+        <v>59.67</v>
       </c>
       <c r="C437" t="n">
-        <v>59.93</v>
+        <v>56.29</v>
       </c>
       <c r="D437" t="n">
-        <v>62.41</v>
+        <v>60.01</v>
       </c>
       <c r="E437" t="n">
-        <v>59.86</v>
+        <v>56.14</v>
       </c>
       <c r="F437" t="n">
-        <v>19305</v>
+        <v>23196</v>
       </c>
       <c r="G437" t="n">
-        <v>165659.55</v>
+        <v>188419.17</v>
       </c>
       <c r="H437" t="n">
-        <v>4.11</v>
+        <v>6.46</v>
       </c>
       <c r="I437" t="n">
-        <v>-3.42</v>
+        <v>-6.07</v>
       </c>
       <c r="J437" t="n">
-        <v>-2.12</v>
+        <v>-3.64</v>
       </c>
       <c r="K437" t="n">
-        <v>3.34</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>59.67</v>
+        <v>55.82</v>
       </c>
       <c r="C438" t="n">
-        <v>56.29</v>
+        <v>53.49</v>
       </c>
       <c r="D438" t="n">
-        <v>60.01</v>
+        <v>56.57</v>
       </c>
       <c r="E438" t="n">
-        <v>56.14</v>
+        <v>53.49</v>
       </c>
       <c r="F438" t="n">
-        <v>23196</v>
+        <v>24144</v>
       </c>
       <c r="G438" t="n">
-        <v>188419.17</v>
+        <v>186988.78</v>
       </c>
       <c r="H438" t="n">
-        <v>6.46</v>
+        <v>5.47</v>
       </c>
       <c r="I438" t="n">
-        <v>-6.07</v>
+        <v>-4.97</v>
       </c>
       <c r="J438" t="n">
-        <v>-3.64</v>
+        <v>-2.8</v>
       </c>
       <c r="K438" t="n">
-        <v>4.01</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>55.82</v>
+        <v>53.25</v>
       </c>
       <c r="C439" t="n">
-        <v>53.49</v>
+        <v>54.23</v>
       </c>
       <c r="D439" t="n">
-        <v>56.57</v>
+        <v>54.69</v>
       </c>
       <c r="E439" t="n">
-        <v>53.49</v>
+        <v>52.91</v>
       </c>
       <c r="F439" t="n">
-        <v>24144</v>
+        <v>18319</v>
       </c>
       <c r="G439" t="n">
-        <v>186988.78</v>
+        <v>139971.08</v>
       </c>
       <c r="H439" t="n">
-        <v>5.47</v>
+        <v>3.33</v>
       </c>
       <c r="I439" t="n">
-        <v>-4.97</v>
+        <v>1.38</v>
       </c>
       <c r="J439" t="n">
-        <v>-2.8</v>
+        <v>0.74</v>
       </c>
       <c r="K439" t="n">
-        <v>4.17</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>53.25</v>
+        <v>54.19</v>
       </c>
       <c r="C440" t="n">
-        <v>54.23</v>
+        <v>50.86</v>
       </c>
       <c r="D440" t="n">
-        <v>54.69</v>
+        <v>54.2</v>
       </c>
       <c r="E440" t="n">
-        <v>52.91</v>
+        <v>50.81</v>
       </c>
       <c r="F440" t="n">
-        <v>18319</v>
+        <v>19573</v>
       </c>
       <c r="G440" t="n">
-        <v>139971.08</v>
+        <v>144955.87</v>
       </c>
       <c r="H440" t="n">
-        <v>3.33</v>
+        <v>6.25</v>
       </c>
       <c r="I440" t="n">
-        <v>1.38</v>
+        <v>-6.21</v>
       </c>
       <c r="J440" t="n">
-        <v>0.74</v>
+        <v>-3.37</v>
       </c>
       <c r="K440" t="n">
-        <v>3.17</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>54.19</v>
+        <v>50.72</v>
       </c>
       <c r="C441" t="n">
-        <v>50.86</v>
+        <v>51.33</v>
       </c>
       <c r="D441" t="n">
-        <v>54.2</v>
+        <v>52</v>
       </c>
       <c r="E441" t="n">
-        <v>50.81</v>
+        <v>50.72</v>
       </c>
       <c r="F441" t="n">
-        <v>19573</v>
+        <v>17321</v>
       </c>
       <c r="G441" t="n">
-        <v>144955.87</v>
+        <v>126376.58</v>
       </c>
       <c r="H441" t="n">
-        <v>6.25</v>
+        <v>2.52</v>
       </c>
       <c r="I441" t="n">
-        <v>-6.21</v>
+        <v>0.92</v>
       </c>
       <c r="J441" t="n">
-        <v>-3.37</v>
+        <v>0.47</v>
       </c>
       <c r="K441" t="n">
-        <v>3.38</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-03-29</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>50.72</v>
+        <v>51</v>
       </c>
       <c r="C442" t="n">
-        <v>51.33</v>
+        <v>51.54</v>
       </c>
       <c r="D442" t="n">
-        <v>52</v>
+        <v>52.36</v>
       </c>
       <c r="E442" t="n">
-        <v>50.72</v>
+        <v>50.97</v>
       </c>
       <c r="F442" t="n">
-        <v>17321</v>
+        <v>11659</v>
       </c>
       <c r="G442" t="n">
-        <v>126376.58</v>
+        <v>85546.02</v>
       </c>
       <c r="H442" t="n">
-        <v>2.52</v>
+        <v>2.71</v>
       </c>
       <c r="I442" t="n">
-        <v>0.92</v>
+        <v>0.41</v>
       </c>
       <c r="J442" t="n">
-        <v>0.47</v>
+        <v>0.21</v>
       </c>
       <c r="K442" t="n">
-        <v>2.99</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>2024-03-29</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>51</v>
+        <v>51.64</v>
       </c>
       <c r="C443" t="n">
-        <v>51.54</v>
+        <v>56.24</v>
       </c>
       <c r="D443" t="n">
-        <v>52.36</v>
+        <v>56.41</v>
       </c>
       <c r="E443" t="n">
-        <v>50.97</v>
+        <v>51.64</v>
       </c>
       <c r="F443" t="n">
-        <v>11659</v>
+        <v>27935</v>
       </c>
       <c r="G443" t="n">
-        <v>85546.02</v>
+        <v>215877.16</v>
       </c>
       <c r="H443" t="n">
-        <v>2.71</v>
+        <v>9.25</v>
       </c>
       <c r="I443" t="n">
-        <v>0.41</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="J443" t="n">
-        <v>0.21</v>
+        <v>4.7</v>
       </c>
       <c r="K443" t="n">
-        <v>2.02</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>51.64</v>
+        <v>56.24</v>
       </c>
       <c r="C444" t="n">
-        <v>56.24</v>
+        <v>55.91</v>
       </c>
       <c r="D444" t="n">
-        <v>56.41</v>
+        <v>56.99</v>
       </c>
       <c r="E444" t="n">
-        <v>51.64</v>
+        <v>54.9</v>
       </c>
       <c r="F444" t="n">
-        <v>27935</v>
+        <v>19607</v>
       </c>
       <c r="G444" t="n">
-        <v>215877.16</v>
+        <v>155005.94</v>
       </c>
       <c r="H444" t="n">
-        <v>9.25</v>
+        <v>3.72</v>
       </c>
       <c r="I444" t="n">
-        <v>9.119999999999999</v>
+        <v>-0.59</v>
       </c>
       <c r="J444" t="n">
-        <v>4.7</v>
+        <v>-0.33</v>
       </c>
       <c r="K444" t="n">
-        <v>4.83</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>56.24</v>
+        <v>55.54</v>
       </c>
       <c r="C445" t="n">
-        <v>55.91</v>
+        <v>55.11</v>
       </c>
       <c r="D445" t="n">
-        <v>56.99</v>
+        <v>56.36</v>
       </c>
       <c r="E445" t="n">
-        <v>54.9</v>
+        <v>54.87</v>
       </c>
       <c r="F445" t="n">
-        <v>19607</v>
+        <v>15064</v>
       </c>
       <c r="G445" t="n">
-        <v>155005.94</v>
+        <v>118802.78</v>
       </c>
       <c r="H445" t="n">
-        <v>3.72</v>
+        <v>2.66</v>
       </c>
       <c r="I445" t="n">
-        <v>-0.59</v>
+        <v>-1.43</v>
       </c>
       <c r="J445" t="n">
-        <v>-0.33</v>
+        <v>-0.8</v>
       </c>
       <c r="K445" t="n">
-        <v>3.39</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>55.54</v>
+        <v>55.01</v>
       </c>
       <c r="C446" t="n">
-        <v>55.11</v>
+        <v>52.04</v>
       </c>
       <c r="D446" t="n">
-        <v>56.36</v>
+        <v>55.31</v>
       </c>
       <c r="E446" t="n">
-        <v>54.87</v>
+        <v>51.9</v>
       </c>
       <c r="F446" t="n">
-        <v>15064</v>
+        <v>14952</v>
       </c>
       <c r="G446" t="n">
-        <v>118802.78</v>
+        <v>112824.71</v>
       </c>
       <c r="H446" t="n">
-        <v>2.66</v>
+        <v>6.19</v>
       </c>
       <c r="I446" t="n">
-        <v>-1.43</v>
+        <v>-5.57</v>
       </c>
       <c r="J446" t="n">
-        <v>-0.8</v>
+        <v>-3.07</v>
       </c>
       <c r="K446" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>55.01</v>
+        <v>52.09</v>
       </c>
       <c r="C447" t="n">
-        <v>52.04</v>
+        <v>54.38</v>
       </c>
       <c r="D447" t="n">
-        <v>55.31</v>
+        <v>55.29</v>
       </c>
       <c r="E447" t="n">
-        <v>51.9</v>
+        <v>52.07</v>
       </c>
       <c r="F447" t="n">
-        <v>14952</v>
+        <v>14682</v>
       </c>
       <c r="G447" t="n">
-        <v>112824.71</v>
+        <v>112248.71</v>
       </c>
       <c r="H447" t="n">
         <v>6.19</v>
       </c>
       <c r="I447" t="n">
-        <v>-5.57</v>
+        <v>4.5</v>
       </c>
       <c r="J447" t="n">
-        <v>-3.07</v>
+        <v>2.34</v>
       </c>
       <c r="K447" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>52.09</v>
+        <v>54.43</v>
       </c>
       <c r="C448" t="n">
-        <v>54.38</v>
+        <v>52.4</v>
       </c>
       <c r="D448" t="n">
-        <v>55.29</v>
+        <v>54.43</v>
       </c>
       <c r="E448" t="n">
-        <v>52.07</v>
+        <v>51.99</v>
       </c>
       <c r="F448" t="n">
-        <v>14682</v>
+        <v>13610</v>
       </c>
       <c r="G448" t="n">
-        <v>112248.71</v>
+        <v>101951.7</v>
       </c>
       <c r="H448" t="n">
-        <v>6.19</v>
+        <v>4.49</v>
       </c>
       <c r="I448" t="n">
-        <v>4.5</v>
+        <v>-3.64</v>
       </c>
       <c r="J448" t="n">
-        <v>2.34</v>
+        <v>-1.98</v>
       </c>
       <c r="K448" t="n">
-        <v>2.54</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-04-11</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>54.43</v>
+        <v>52.12</v>
       </c>
       <c r="C449" t="n">
-        <v>52.4</v>
+        <v>51.71</v>
       </c>
       <c r="D449" t="n">
-        <v>54.43</v>
+        <v>52.79</v>
       </c>
       <c r="E449" t="n">
-        <v>51.99</v>
+        <v>51.36</v>
       </c>
       <c r="F449" t="n">
-        <v>13610</v>
+        <v>13151</v>
       </c>
       <c r="G449" t="n">
-        <v>101951.7</v>
+        <v>96998.19</v>
       </c>
       <c r="H449" t="n">
-        <v>4.49</v>
+        <v>2.73</v>
       </c>
       <c r="I449" t="n">
-        <v>-3.64</v>
+        <v>-1.32</v>
       </c>
       <c r="J449" t="n">
-        <v>-1.98</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="K449" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>52.12</v>
+        <v>51.93</v>
       </c>
       <c r="C450" t="n">
-        <v>51.71</v>
+        <v>49.19</v>
       </c>
       <c r="D450" t="n">
-        <v>52.79</v>
+        <v>51.97</v>
       </c>
       <c r="E450" t="n">
-        <v>51.36</v>
+        <v>49.01</v>
       </c>
       <c r="F450" t="n">
-        <v>13151</v>
+        <v>18961</v>
       </c>
       <c r="G450" t="n">
-        <v>96998.19</v>
+        <v>134705.09</v>
       </c>
       <c r="H450" t="n">
-        <v>2.73</v>
+        <v>5.72</v>
       </c>
       <c r="I450" t="n">
-        <v>-1.32</v>
+        <v>-4.87</v>
       </c>
       <c r="J450" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-2.52</v>
       </c>
       <c r="K450" t="n">
-        <v>2.27</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-04-15</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>51.93</v>
+        <v>49.2</v>
       </c>
       <c r="C451" t="n">
-        <v>49.19</v>
+        <v>48.78</v>
       </c>
       <c r="D451" t="n">
-        <v>51.97</v>
+        <v>50.63</v>
       </c>
       <c r="E451" t="n">
-        <v>49.01</v>
+        <v>48.49</v>
       </c>
       <c r="F451" t="n">
-        <v>18961</v>
+        <v>18370</v>
       </c>
       <c r="G451" t="n">
-        <v>134705.09</v>
+        <v>129173.9</v>
       </c>
       <c r="H451" t="n">
-        <v>5.72</v>
+        <v>4.35</v>
       </c>
       <c r="I451" t="n">
-        <v>-4.87</v>
+        <v>-0.83</v>
       </c>
       <c r="J451" t="n">
-        <v>-2.52</v>
+        <v>-0.41</v>
       </c>
       <c r="K451" t="n">
-        <v>3.28</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="C452" t="n">
-        <v>48.78</v>
+        <v>45.85</v>
       </c>
       <c r="D452" t="n">
-        <v>50.63</v>
+        <v>49.07</v>
       </c>
       <c r="E452" t="n">
-        <v>48.49</v>
+        <v>45.81</v>
       </c>
       <c r="F452" t="n">
-        <v>18370</v>
+        <v>18197</v>
       </c>
       <c r="G452" t="n">
-        <v>129173.9</v>
+        <v>120933.54</v>
       </c>
       <c r="H452" t="n">
-        <v>4.35</v>
+        <v>6.68</v>
       </c>
       <c r="I452" t="n">
-        <v>-0.83</v>
+        <v>-6.01</v>
       </c>
       <c r="J452" t="n">
-        <v>-0.41</v>
+        <v>-2.93</v>
       </c>
       <c r="K452" t="n">
-        <v>3.17</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>48.9</v>
+        <v>46.07</v>
       </c>
       <c r="C453" t="n">
-        <v>45.85</v>
+        <v>47.49</v>
       </c>
       <c r="D453" t="n">
-        <v>49.07</v>
+        <v>48.04</v>
       </c>
       <c r="E453" t="n">
-        <v>45.81</v>
+        <v>46.07</v>
       </c>
       <c r="F453" t="n">
-        <v>18197</v>
+        <v>13547</v>
       </c>
       <c r="G453" t="n">
-        <v>120933.54</v>
+        <v>91171.64</v>
       </c>
       <c r="H453" t="n">
-        <v>6.68</v>
+        <v>4.3</v>
       </c>
       <c r="I453" t="n">
-        <v>-6.01</v>
+        <v>3.58</v>
       </c>
       <c r="J453" t="n">
-        <v>-2.93</v>
+        <v>1.64</v>
       </c>
       <c r="K453" t="n">
-        <v>3.14</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>46.07</v>
+        <v>47.41</v>
       </c>
       <c r="C454" t="n">
-        <v>47.49</v>
+        <v>46.69</v>
       </c>
       <c r="D454" t="n">
-        <v>48.04</v>
+        <v>47.99</v>
       </c>
       <c r="E454" t="n">
-        <v>46.07</v>
+        <v>46.14</v>
       </c>
       <c r="F454" t="n">
-        <v>13547</v>
+        <v>15712</v>
       </c>
       <c r="G454" t="n">
-        <v>91171.64</v>
+        <v>105294.04</v>
       </c>
       <c r="H454" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="I454" t="n">
-        <v>3.58</v>
+        <v>-1.68</v>
       </c>
       <c r="J454" t="n">
-        <v>1.64</v>
+        <v>-0.8</v>
       </c>
       <c r="K454" t="n">
-        <v>2.34</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>47.41</v>
+        <v>46.44</v>
       </c>
       <c r="C455" t="n">
-        <v>46.69</v>
+        <v>45.39</v>
       </c>
       <c r="D455" t="n">
-        <v>47.99</v>
+        <v>46.67</v>
       </c>
       <c r="E455" t="n">
-        <v>46.14</v>
+        <v>45.29</v>
       </c>
       <c r="F455" t="n">
-        <v>15712</v>
+        <v>14465</v>
       </c>
       <c r="G455" t="n">
-        <v>105294.04</v>
+        <v>93970.46000000001</v>
       </c>
       <c r="H455" t="n">
-        <v>3.9</v>
+        <v>2.96</v>
       </c>
       <c r="I455" t="n">
-        <v>-1.68</v>
+        <v>-2.78</v>
       </c>
       <c r="J455" t="n">
-        <v>-0.8</v>
+        <v>-1.3</v>
       </c>
       <c r="K455" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>46.44</v>
+        <v>45.01</v>
       </c>
       <c r="C456" t="n">
-        <v>45.39</v>
+        <v>46.04</v>
       </c>
       <c r="D456" t="n">
-        <v>46.67</v>
+        <v>47.01</v>
       </c>
       <c r="E456" t="n">
-        <v>45.29</v>
+        <v>44.92</v>
       </c>
       <c r="F456" t="n">
-        <v>14465</v>
+        <v>12664</v>
       </c>
       <c r="G456" t="n">
-        <v>93970.46000000001</v>
+        <v>83106.39999999999</v>
       </c>
       <c r="H456" t="n">
-        <v>2.96</v>
+        <v>4.6</v>
       </c>
       <c r="I456" t="n">
-        <v>-2.78</v>
+        <v>1.43</v>
       </c>
       <c r="J456" t="n">
-        <v>-1.3</v>
+        <v>0.65</v>
       </c>
       <c r="K456" t="n">
-        <v>2.5</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>45.01</v>
+        <v>46.76</v>
       </c>
       <c r="C457" t="n">
-        <v>46.04</v>
+        <v>45.34</v>
       </c>
       <c r="D457" t="n">
-        <v>47.01</v>
+        <v>47.29</v>
       </c>
       <c r="E457" t="n">
-        <v>44.92</v>
+        <v>45.29</v>
       </c>
       <c r="F457" t="n">
-        <v>12664</v>
+        <v>14273</v>
       </c>
       <c r="G457" t="n">
-        <v>83106.39999999999</v>
+        <v>93385.03</v>
       </c>
       <c r="H457" t="n">
-        <v>4.6</v>
+        <v>4.34</v>
       </c>
       <c r="I457" t="n">
-        <v>1.43</v>
+        <v>-1.52</v>
       </c>
       <c r="J457" t="n">
-        <v>0.65</v>
+        <v>-0.7</v>
       </c>
       <c r="K457" t="n">
-        <v>2.19</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>46.76</v>
+        <v>45.08</v>
       </c>
       <c r="C458" t="n">
-        <v>45.34</v>
+        <v>45</v>
       </c>
       <c r="D458" t="n">
-        <v>47.29</v>
+        <v>45.54</v>
       </c>
       <c r="E458" t="n">
-        <v>45.29</v>
+        <v>44.4</v>
       </c>
       <c r="F458" t="n">
-        <v>14273</v>
+        <v>13740</v>
       </c>
       <c r="G458" t="n">
-        <v>93385.03</v>
+        <v>87686.98</v>
       </c>
       <c r="H458" t="n">
-        <v>4.34</v>
+        <v>2.51</v>
       </c>
       <c r="I458" t="n">
-        <v>-1.52</v>
+        <v>-0.75</v>
       </c>
       <c r="J458" t="n">
-        <v>-0.7</v>
+        <v>-0.34</v>
       </c>
       <c r="K458" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>45.08</v>
+        <v>44.85</v>
       </c>
       <c r="C459" t="n">
-        <v>45</v>
+        <v>45.61</v>
       </c>
       <c r="D459" t="n">
-        <v>45.54</v>
+        <v>46.69</v>
       </c>
       <c r="E459" t="n">
-        <v>44.4</v>
+        <v>44.16</v>
       </c>
       <c r="F459" t="n">
-        <v>13740</v>
+        <v>14587</v>
       </c>
       <c r="G459" t="n">
-        <v>87686.98</v>
+        <v>94798.55</v>
       </c>
       <c r="H459" t="n">
-        <v>2.51</v>
+        <v>5.62</v>
       </c>
       <c r="I459" t="n">
-        <v>-0.75</v>
+        <v>1.36</v>
       </c>
       <c r="J459" t="n">
-        <v>-0.34</v>
+        <v>0.61</v>
       </c>
       <c r="K459" t="n">
-        <v>2.37</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>44.85</v>
+        <v>45.36</v>
       </c>
       <c r="C460" t="n">
-        <v>45.61</v>
+        <v>46.73</v>
       </c>
       <c r="D460" t="n">
-        <v>46.69</v>
+        <v>46.85</v>
       </c>
       <c r="E460" t="n">
-        <v>44.16</v>
+        <v>44.54</v>
       </c>
       <c r="F460" t="n">
-        <v>14587</v>
+        <v>17338</v>
       </c>
       <c r="G460" t="n">
-        <v>94798.55</v>
+        <v>113565.48</v>
       </c>
       <c r="H460" t="n">
-        <v>5.62</v>
+        <v>5.06</v>
       </c>
       <c r="I460" t="n">
-        <v>1.36</v>
+        <v>2.46</v>
       </c>
       <c r="J460" t="n">
-        <v>0.61</v>
+        <v>1.12</v>
       </c>
       <c r="K460" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>45.36</v>
+        <v>47.09</v>
       </c>
       <c r="C461" t="n">
-        <v>46.73</v>
+        <v>49.36</v>
       </c>
       <c r="D461" t="n">
-        <v>46.85</v>
+        <v>49.86</v>
       </c>
       <c r="E461" t="n">
-        <v>44.54</v>
+        <v>46.79</v>
       </c>
       <c r="F461" t="n">
-        <v>17338</v>
+        <v>24049</v>
       </c>
       <c r="G461" t="n">
-        <v>113565.48</v>
+        <v>166054.88</v>
       </c>
       <c r="H461" t="n">
-        <v>5.06</v>
+        <v>6.57</v>
       </c>
       <c r="I461" t="n">
-        <v>2.46</v>
+        <v>5.63</v>
       </c>
       <c r="J461" t="n">
-        <v>1.12</v>
+        <v>2.63</v>
       </c>
       <c r="K461" t="n">
-        <v>3</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>47.09</v>
+        <v>49.9</v>
       </c>
       <c r="C462" t="n">
-        <v>49.36</v>
+        <v>49.14</v>
       </c>
       <c r="D462" t="n">
-        <v>49.86</v>
+        <v>49.93</v>
       </c>
       <c r="E462" t="n">
-        <v>46.79</v>
+        <v>49.01</v>
       </c>
       <c r="F462" t="n">
-        <v>24049</v>
+        <v>14802</v>
       </c>
       <c r="G462" t="n">
-        <v>166054.88</v>
+        <v>103929.74</v>
       </c>
       <c r="H462" t="n">
-        <v>6.57</v>
+        <v>1.86</v>
       </c>
       <c r="I462" t="n">
-        <v>5.63</v>
+        <v>-0.45</v>
       </c>
       <c r="J462" t="n">
-        <v>2.63</v>
+        <v>-0.22</v>
       </c>
       <c r="K462" t="n">
-        <v>4.16</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>49.9</v>
+        <v>49.79</v>
       </c>
       <c r="C463" t="n">
-        <v>49.14</v>
+        <v>50.68</v>
       </c>
       <c r="D463" t="n">
-        <v>49.93</v>
+        <v>51.4</v>
       </c>
       <c r="E463" t="n">
-        <v>49.01</v>
+        <v>49.65</v>
       </c>
       <c r="F463" t="n">
-        <v>14802</v>
+        <v>15096</v>
       </c>
       <c r="G463" t="n">
-        <v>103929.74</v>
+        <v>108583.63</v>
       </c>
       <c r="H463" t="n">
-        <v>1.86</v>
+        <v>3.56</v>
       </c>
       <c r="I463" t="n">
-        <v>-0.45</v>
+        <v>3.13</v>
       </c>
       <c r="J463" t="n">
-        <v>-0.22</v>
+        <v>1.54</v>
       </c>
       <c r="K463" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>49.79</v>
+        <v>50.71</v>
       </c>
       <c r="C464" t="n">
-        <v>50.68</v>
+        <v>50.98</v>
       </c>
       <c r="D464" t="n">
-        <v>51.4</v>
+        <v>51.26</v>
       </c>
       <c r="E464" t="n">
-        <v>49.65</v>
+        <v>50.06</v>
       </c>
       <c r="F464" t="n">
-        <v>15096</v>
+        <v>11941</v>
       </c>
       <c r="G464" t="n">
-        <v>108583.63</v>
+        <v>86067.52</v>
       </c>
       <c r="H464" t="n">
-        <v>3.56</v>
+        <v>2.37</v>
       </c>
       <c r="I464" t="n">
-        <v>3.13</v>
+        <v>0.59</v>
       </c>
       <c r="J464" t="n">
-        <v>1.54</v>
+        <v>0.3</v>
       </c>
       <c r="K464" t="n">
-        <v>2.61</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>50.71</v>
+        <v>50.93</v>
       </c>
       <c r="C465" t="n">
-        <v>50.98</v>
+        <v>50.25</v>
       </c>
       <c r="D465" t="n">
-        <v>51.26</v>
+        <v>51.84</v>
       </c>
       <c r="E465" t="n">
-        <v>50.06</v>
+        <v>50.19</v>
       </c>
       <c r="F465" t="n">
-        <v>11941</v>
+        <v>12860</v>
       </c>
       <c r="G465" t="n">
-        <v>86067.52</v>
+        <v>92910.34</v>
       </c>
       <c r="H465" t="n">
-        <v>2.37</v>
+        <v>3.24</v>
       </c>
       <c r="I465" t="n">
-        <v>0.59</v>
+        <v>-1.43</v>
       </c>
       <c r="J465" t="n">
-        <v>0.3</v>
+        <v>-0.73</v>
       </c>
       <c r="K465" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-05-09</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>50.93</v>
+        <v>50.43</v>
       </c>
       <c r="C466" t="n">
-        <v>50.25</v>
+        <v>52.51</v>
       </c>
       <c r="D466" t="n">
-        <v>51.84</v>
+        <v>53.93</v>
       </c>
       <c r="E466" t="n">
-        <v>50.19</v>
+        <v>50.43</v>
       </c>
       <c r="F466" t="n">
-        <v>12860</v>
+        <v>22599</v>
       </c>
       <c r="G466" t="n">
-        <v>92910.34</v>
+        <v>168608.26</v>
       </c>
       <c r="H466" t="n">
-        <v>3.24</v>
+        <v>6.97</v>
       </c>
       <c r="I466" t="n">
-        <v>-1.43</v>
+        <v>4.5</v>
       </c>
       <c r="J466" t="n">
-        <v>-0.73</v>
+        <v>2.26</v>
       </c>
       <c r="K466" t="n">
-        <v>2.22</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-05-10</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>50.43</v>
+        <v>52.54</v>
       </c>
       <c r="C467" t="n">
-        <v>52.51</v>
+        <v>52.41</v>
       </c>
       <c r="D467" t="n">
-        <v>53.93</v>
+        <v>52.99</v>
       </c>
       <c r="E467" t="n">
-        <v>50.43</v>
+        <v>51.43</v>
       </c>
       <c r="F467" t="n">
-        <v>22599</v>
+        <v>11320</v>
       </c>
       <c r="G467" t="n">
-        <v>168608.26</v>
+        <v>83837.69</v>
       </c>
       <c r="H467" t="n">
-        <v>6.97</v>
+        <v>2.97</v>
       </c>
       <c r="I467" t="n">
-        <v>4.5</v>
+        <v>-0.19</v>
       </c>
       <c r="J467" t="n">
-        <v>2.26</v>
+        <v>-0.1</v>
       </c>
       <c r="K467" t="n">
-        <v>3.91</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>52.54</v>
+        <v>51.56</v>
       </c>
       <c r="C468" t="n">
-        <v>52.41</v>
+        <v>52.86</v>
       </c>
       <c r="D468" t="n">
-        <v>52.99</v>
+        <v>54.28</v>
       </c>
       <c r="E468" t="n">
-        <v>51.43</v>
+        <v>51.44</v>
       </c>
       <c r="F468" t="n">
-        <v>11320</v>
+        <v>17857</v>
       </c>
       <c r="G468" t="n">
-        <v>83837.69</v>
+        <v>134579.68</v>
       </c>
       <c r="H468" t="n">
-        <v>2.97</v>
+        <v>5.42</v>
       </c>
       <c r="I468" t="n">
-        <v>-0.19</v>
+        <v>0.86</v>
       </c>
       <c r="J468" t="n">
-        <v>-0.1</v>
+        <v>0.45</v>
       </c>
       <c r="K468" t="n">
-        <v>1.96</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>51.56</v>
+        <v>52.5</v>
       </c>
       <c r="C469" t="n">
-        <v>52.86</v>
+        <v>51.5</v>
       </c>
       <c r="D469" t="n">
-        <v>54.28</v>
+        <v>53</v>
       </c>
       <c r="E469" t="n">
-        <v>51.44</v>
+        <v>51.21</v>
       </c>
       <c r="F469" t="n">
-        <v>17857</v>
+        <v>16668</v>
       </c>
       <c r="G469" t="n">
-        <v>134579.68</v>
+        <v>122808.48</v>
       </c>
       <c r="H469" t="n">
-        <v>5.42</v>
+        <v>3.39</v>
       </c>
       <c r="I469" t="n">
-        <v>0.86</v>
+        <v>-2.57</v>
       </c>
       <c r="J469" t="n">
-        <v>0.45</v>
+        <v>-1.36</v>
       </c>
       <c r="K469" t="n">
-        <v>3.09</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>52.5</v>
+        <v>52.71</v>
       </c>
       <c r="C470" t="n">
-        <v>51.5</v>
+        <v>50.71</v>
       </c>
       <c r="D470" t="n">
-        <v>53</v>
+        <v>54.27</v>
       </c>
       <c r="E470" t="n">
-        <v>51.21</v>
+        <v>50.59</v>
       </c>
       <c r="F470" t="n">
-        <v>16668</v>
+        <v>12273</v>
       </c>
       <c r="G470" t="n">
-        <v>122808.48</v>
+        <v>90348.66</v>
       </c>
       <c r="H470" t="n">
-        <v>3.39</v>
+        <v>7.15</v>
       </c>
       <c r="I470" t="n">
-        <v>-2.57</v>
+        <v>-1.53</v>
       </c>
       <c r="J470" t="n">
-        <v>-1.36</v>
+        <v>-0.79</v>
       </c>
       <c r="K470" t="n">
-        <v>2.88</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>52.71</v>
+        <v>50.99</v>
       </c>
       <c r="C471" t="n">
-        <v>50.71</v>
+        <v>50.02</v>
       </c>
       <c r="D471" t="n">
-        <v>54.27</v>
+        <v>51.11</v>
       </c>
       <c r="E471" t="n">
-        <v>50.59</v>
+        <v>49.86</v>
       </c>
       <c r="F471" t="n">
-        <v>12273</v>
+        <v>9218</v>
       </c>
       <c r="G471" t="n">
-        <v>90348.66</v>
+        <v>65947.75999999999</v>
       </c>
       <c r="H471" t="n">
-        <v>7.15</v>
+        <v>2.46</v>
       </c>
       <c r="I471" t="n">
-        <v>-1.53</v>
+        <v>-1.36</v>
       </c>
       <c r="J471" t="n">
-        <v>-0.79</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="K471" t="n">
-        <v>2.12</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>50.99</v>
+        <v>49.65</v>
       </c>
       <c r="C472" t="n">
-        <v>50.02</v>
+        <v>50.42</v>
       </c>
       <c r="D472" t="n">
-        <v>51.11</v>
+        <v>50.64</v>
       </c>
       <c r="E472" t="n">
-        <v>49.86</v>
+        <v>49.11</v>
       </c>
       <c r="F472" t="n">
-        <v>9218</v>
+        <v>10009</v>
       </c>
       <c r="G472" t="n">
-        <v>65947.75999999999</v>
+        <v>70887.74000000001</v>
       </c>
       <c r="H472" t="n">
-        <v>2.46</v>
+        <v>3.06</v>
       </c>
       <c r="I472" t="n">
-        <v>-1.36</v>
+        <v>0.8</v>
       </c>
       <c r="J472" t="n">
-        <v>-0.6899999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="K472" t="n">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>49.65</v>
+        <v>50.54</v>
       </c>
       <c r="C473" t="n">
-        <v>50.42</v>
+        <v>50.12</v>
       </c>
       <c r="D473" t="n">
-        <v>50.64</v>
+        <v>51.15</v>
       </c>
       <c r="E473" t="n">
-        <v>49.11</v>
+        <v>49.79</v>
       </c>
       <c r="F473" t="n">
-        <v>10009</v>
+        <v>9801</v>
       </c>
       <c r="G473" t="n">
-        <v>70887.74000000001</v>
+        <v>70096.33</v>
       </c>
       <c r="H473" t="n">
-        <v>3.06</v>
+        <v>2.7</v>
       </c>
       <c r="I473" t="n">
-        <v>0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="J473" t="n">
-        <v>0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="K473" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>50.54</v>
+        <v>50.21</v>
       </c>
       <c r="C474" t="n">
-        <v>50.12</v>
+        <v>49.49</v>
       </c>
       <c r="D474" t="n">
-        <v>51.15</v>
+        <v>50.28</v>
       </c>
       <c r="E474" t="n">
-        <v>49.79</v>
+        <v>49.21</v>
       </c>
       <c r="F474" t="n">
-        <v>9801</v>
+        <v>7889</v>
       </c>
       <c r="G474" t="n">
-        <v>70096.33</v>
+        <v>55501.99</v>
       </c>
       <c r="H474" t="n">
-        <v>2.7</v>
+        <v>2.13</v>
       </c>
       <c r="I474" t="n">
-        <v>-0.6</v>
+        <v>-1.26</v>
       </c>
       <c r="J474" t="n">
-        <v>-0.3</v>
+        <v>-0.63</v>
       </c>
       <c r="K474" t="n">
-        <v>1.69</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>50.21</v>
+        <v>49.54</v>
       </c>
       <c r="C475" t="n">
-        <v>49.49</v>
+        <v>52.96</v>
       </c>
       <c r="D475" t="n">
-        <v>50.28</v>
+        <v>53.18</v>
       </c>
       <c r="E475" t="n">
-        <v>49.21</v>
+        <v>49.54</v>
       </c>
       <c r="F475" t="n">
-        <v>7889</v>
+        <v>24305</v>
       </c>
       <c r="G475" t="n">
-        <v>55501.99</v>
+        <v>178741.46</v>
       </c>
       <c r="H475" t="n">
-        <v>2.13</v>
+        <v>7.36</v>
       </c>
       <c r="I475" t="n">
-        <v>-1.26</v>
+        <v>7.01</v>
       </c>
       <c r="J475" t="n">
-        <v>-0.63</v>
+        <v>3.47</v>
       </c>
       <c r="K475" t="n">
-        <v>1.36</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>49.54</v>
+        <v>52.5</v>
       </c>
       <c r="C476" t="n">
-        <v>52.96</v>
+        <v>50.93</v>
       </c>
       <c r="D476" t="n">
-        <v>53.18</v>
+        <v>52.84</v>
       </c>
       <c r="E476" t="n">
-        <v>49.54</v>
+        <v>50.72</v>
       </c>
       <c r="F476" t="n">
-        <v>24305</v>
+        <v>14952</v>
       </c>
       <c r="G476" t="n">
-        <v>178741.46</v>
+        <v>109275.12</v>
       </c>
       <c r="H476" t="n">
-        <v>7.36</v>
+        <v>4</v>
       </c>
       <c r="I476" t="n">
-        <v>7.01</v>
+        <v>-3.83</v>
       </c>
       <c r="J476" t="n">
-        <v>3.47</v>
+        <v>-2.03</v>
       </c>
       <c r="K476" t="n">
-        <v>4.2</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>52.5</v>
+        <v>51.21</v>
       </c>
       <c r="C477" t="n">
-        <v>50.93</v>
+        <v>49.16</v>
       </c>
       <c r="D477" t="n">
-        <v>52.84</v>
+        <v>52.04</v>
       </c>
       <c r="E477" t="n">
-        <v>50.72</v>
+        <v>49.16</v>
       </c>
       <c r="F477" t="n">
-        <v>14952</v>
+        <v>14990</v>
       </c>
       <c r="G477" t="n">
-        <v>109275.12</v>
+        <v>107147.77</v>
       </c>
       <c r="H477" t="n">
-        <v>4</v>
+        <v>5.65</v>
       </c>
       <c r="I477" t="n">
-        <v>-3.83</v>
+        <v>-3.48</v>
       </c>
       <c r="J477" t="n">
-        <v>-2.03</v>
+        <v>-1.77</v>
       </c>
       <c r="K477" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>51.21</v>
+        <v>48.93</v>
       </c>
       <c r="C478" t="n">
-        <v>49.16</v>
+        <v>49.76</v>
       </c>
       <c r="D478" t="n">
-        <v>52.04</v>
+        <v>50.19</v>
       </c>
       <c r="E478" t="n">
-        <v>49.16</v>
+        <v>47.26</v>
       </c>
       <c r="F478" t="n">
-        <v>14990</v>
+        <v>14288</v>
       </c>
       <c r="G478" t="n">
-        <v>107147.77</v>
+        <v>99172.39</v>
       </c>
       <c r="H478" t="n">
-        <v>5.65</v>
+        <v>5.96</v>
       </c>
       <c r="I478" t="n">
-        <v>-3.48</v>
+        <v>1.22</v>
       </c>
       <c r="J478" t="n">
-        <v>-1.77</v>
+        <v>0.6</v>
       </c>
       <c r="K478" t="n">
-        <v>2.59</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>48.93</v>
+        <v>49.39</v>
       </c>
       <c r="C479" t="n">
-        <v>49.76</v>
+        <v>49.8</v>
       </c>
       <c r="D479" t="n">
-        <v>50.19</v>
+        <v>51.1</v>
       </c>
       <c r="E479" t="n">
-        <v>47.26</v>
+        <v>49.29</v>
       </c>
       <c r="F479" t="n">
-        <v>14288</v>
+        <v>10281</v>
       </c>
       <c r="G479" t="n">
-        <v>99172.39</v>
+        <v>73255.94</v>
       </c>
       <c r="H479" t="n">
-        <v>5.96</v>
+        <v>3.64</v>
       </c>
       <c r="I479" t="n">
-        <v>1.22</v>
+        <v>0.08</v>
       </c>
       <c r="J479" t="n">
-        <v>0.6</v>
+        <v>0.04</v>
       </c>
       <c r="K479" t="n">
-        <v>2.47</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>49.39</v>
+        <v>49.93</v>
       </c>
       <c r="C480" t="n">
-        <v>49.8</v>
+        <v>50.65</v>
       </c>
       <c r="D480" t="n">
-        <v>51.1</v>
+        <v>53.09</v>
       </c>
       <c r="E480" t="n">
-        <v>49.29</v>
+        <v>49.93</v>
       </c>
       <c r="F480" t="n">
-        <v>10281</v>
+        <v>17920</v>
       </c>
       <c r="G480" t="n">
-        <v>73255.94</v>
+        <v>132018.21</v>
       </c>
       <c r="H480" t="n">
-        <v>3.64</v>
+        <v>6.35</v>
       </c>
       <c r="I480" t="n">
-        <v>0.08</v>
+        <v>1.71</v>
       </c>
       <c r="J480" t="n">
-        <v>0.04</v>
+        <v>0.85</v>
       </c>
       <c r="K480" t="n">
-        <v>1.78</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>49.93</v>
+        <v>51.42</v>
       </c>
       <c r="C481" t="n">
-        <v>50.65</v>
+        <v>49.89</v>
       </c>
       <c r="D481" t="n">
-        <v>53.09</v>
+        <v>51.42</v>
       </c>
       <c r="E481" t="n">
-        <v>49.93</v>
+        <v>49.55</v>
       </c>
       <c r="F481" t="n">
-        <v>17920</v>
+        <v>10864</v>
       </c>
       <c r="G481" t="n">
-        <v>132018.21</v>
+        <v>77365.10000000001</v>
       </c>
       <c r="H481" t="n">
-        <v>6.35</v>
+        <v>3.69</v>
       </c>
       <c r="I481" t="n">
-        <v>1.71</v>
+        <v>-1.5</v>
       </c>
       <c r="J481" t="n">
-        <v>0.85</v>
+        <v>-0.76</v>
       </c>
       <c r="K481" t="n">
-        <v>3.1</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>51.42</v>
+        <v>49.71</v>
       </c>
       <c r="C482" t="n">
-        <v>49.89</v>
+        <v>50.21</v>
       </c>
       <c r="D482" t="n">
-        <v>51.42</v>
+        <v>51.07</v>
       </c>
       <c r="E482" t="n">
-        <v>49.55</v>
+        <v>49.71</v>
       </c>
       <c r="F482" t="n">
-        <v>10864</v>
+        <v>11368</v>
       </c>
       <c r="G482" t="n">
-        <v>77365.10000000001</v>
+        <v>81419.48</v>
       </c>
       <c r="H482" t="n">
-        <v>3.69</v>
+        <v>2.73</v>
       </c>
       <c r="I482" t="n">
-        <v>-1.5</v>
+        <v>0.64</v>
       </c>
       <c r="J482" t="n">
-        <v>-0.76</v>
+        <v>0.32</v>
       </c>
       <c r="K482" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>49.71</v>
+        <v>50.1</v>
       </c>
       <c r="C483" t="n">
-        <v>50.21</v>
+        <v>48.28</v>
       </c>
       <c r="D483" t="n">
-        <v>51.07</v>
+        <v>50.19</v>
       </c>
       <c r="E483" t="n">
-        <v>49.71</v>
+        <v>47.86</v>
       </c>
       <c r="F483" t="n">
-        <v>11368</v>
+        <v>13159</v>
       </c>
       <c r="G483" t="n">
-        <v>81419.48</v>
+        <v>90653.14</v>
       </c>
       <c r="H483" t="n">
-        <v>2.73</v>
+        <v>4.64</v>
       </c>
       <c r="I483" t="n">
-        <v>0.64</v>
+        <v>-3.84</v>
       </c>
       <c r="J483" t="n">
-        <v>0.32</v>
+        <v>-1.93</v>
       </c>
       <c r="K483" t="n">
-        <v>1.96</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>50.1</v>
+        <v>48.36</v>
       </c>
       <c r="C484" t="n">
-        <v>48.28</v>
+        <v>49.24</v>
       </c>
       <c r="D484" t="n">
-        <v>50.19</v>
+        <v>49.36</v>
       </c>
       <c r="E484" t="n">
-        <v>47.86</v>
+        <v>47.5</v>
       </c>
       <c r="F484" t="n">
-        <v>13159</v>
+        <v>13445</v>
       </c>
       <c r="G484" t="n">
-        <v>90653.14</v>
+        <v>92285.3</v>
       </c>
       <c r="H484" t="n">
-        <v>4.64</v>
+        <v>3.85</v>
       </c>
       <c r="I484" t="n">
-        <v>-3.84</v>
+        <v>1.99</v>
       </c>
       <c r="J484" t="n">
-        <v>-1.93</v>
+        <v>0.96</v>
       </c>
       <c r="K484" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>48.36</v>
+        <v>48.94</v>
       </c>
       <c r="C485" t="n">
-        <v>49.24</v>
+        <v>48.56</v>
       </c>
       <c r="D485" t="n">
-        <v>49.36</v>
+        <v>49.96</v>
       </c>
       <c r="E485" t="n">
-        <v>47.5</v>
+        <v>48.56</v>
       </c>
       <c r="F485" t="n">
-        <v>13445</v>
+        <v>7842</v>
       </c>
       <c r="G485" t="n">
-        <v>92285.3</v>
+        <v>54836.87</v>
       </c>
       <c r="H485" t="n">
-        <v>3.85</v>
+        <v>2.84</v>
       </c>
       <c r="I485" t="n">
-        <v>1.99</v>
+        <v>-1.38</v>
       </c>
       <c r="J485" t="n">
-        <v>0.96</v>
+        <v>-0.68</v>
       </c>
       <c r="K485" t="n">
-        <v>2.32</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>48.94</v>
+        <v>48.34</v>
       </c>
       <c r="C486" t="n">
-        <v>48.56</v>
+        <v>45.26</v>
       </c>
       <c r="D486" t="n">
-        <v>49.96</v>
+        <v>48.86</v>
       </c>
       <c r="E486" t="n">
-        <v>48.56</v>
+        <v>45.1</v>
       </c>
       <c r="F486" t="n">
-        <v>7842</v>
+        <v>15899</v>
       </c>
       <c r="G486" t="n">
-        <v>54836.87</v>
+        <v>104903.71</v>
       </c>
       <c r="H486" t="n">
-        <v>2.84</v>
+        <v>7.74</v>
       </c>
       <c r="I486" t="n">
-        <v>-1.38</v>
+        <v>-6.8</v>
       </c>
       <c r="J486" t="n">
-        <v>-0.68</v>
+        <v>-3.3</v>
       </c>
       <c r="K486" t="n">
-        <v>1.36</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>48.34</v>
+        <v>45.54</v>
       </c>
       <c r="C487" t="n">
-        <v>45.26</v>
+        <v>44.66</v>
       </c>
       <c r="D487" t="n">
-        <v>48.86</v>
+        <v>45.86</v>
       </c>
       <c r="E487" t="n">
-        <v>45.1</v>
+        <v>44.53</v>
       </c>
       <c r="F487" t="n">
-        <v>15899</v>
+        <v>9788</v>
       </c>
       <c r="G487" t="n">
-        <v>104903.71</v>
+        <v>62761.4</v>
       </c>
       <c r="H487" t="n">
-        <v>7.74</v>
+        <v>2.94</v>
       </c>
       <c r="I487" t="n">
-        <v>-6.8</v>
+        <v>-1.33</v>
       </c>
       <c r="J487" t="n">
-        <v>-3.3</v>
+        <v>-0.6</v>
       </c>
       <c r="K487" t="n">
-        <v>2.75</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>45.54</v>
+        <v>44.81</v>
       </c>
       <c r="C488" t="n">
-        <v>44.66</v>
+        <v>46.18</v>
       </c>
       <c r="D488" t="n">
-        <v>45.86</v>
+        <v>46.27</v>
       </c>
       <c r="E488" t="n">
-        <v>44.53</v>
+        <v>43.76</v>
       </c>
       <c r="F488" t="n">
-        <v>9788</v>
+        <v>12133</v>
       </c>
       <c r="G488" t="n">
-        <v>62761.4</v>
+        <v>77925.78</v>
       </c>
       <c r="H488" t="n">
-        <v>2.94</v>
+        <v>5.62</v>
       </c>
       <c r="I488" t="n">
-        <v>-1.33</v>
+        <v>3.4</v>
       </c>
       <c r="J488" t="n">
-        <v>-0.6</v>
+        <v>1.52</v>
       </c>
       <c r="K488" t="n">
-        <v>1.69</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-12</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>44.81</v>
+        <v>46.18</v>
       </c>
       <c r="C489" t="n">
-        <v>46.18</v>
+        <v>45.96</v>
       </c>
       <c r="D489" t="n">
-        <v>46.27</v>
+        <v>46.62</v>
       </c>
       <c r="E489" t="n">
-        <v>43.76</v>
+        <v>45.33</v>
       </c>
       <c r="F489" t="n">
-        <v>12133</v>
+        <v>9060</v>
       </c>
       <c r="G489" t="n">
-        <v>77925.78</v>
+        <v>58908.85</v>
       </c>
       <c r="H489" t="n">
-        <v>5.62</v>
+        <v>2.79</v>
       </c>
       <c r="I489" t="n">
-        <v>3.4</v>
+        <v>-0.48</v>
       </c>
       <c r="J489" t="n">
-        <v>1.52</v>
+        <v>-0.22</v>
       </c>
       <c r="K489" t="n">
-        <v>2.09</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>46.18</v>
+        <v>45.86</v>
       </c>
       <c r="C490" t="n">
-        <v>45.96</v>
+        <v>47</v>
       </c>
       <c r="D490" t="n">
-        <v>46.62</v>
+        <v>48.62</v>
       </c>
       <c r="E490" t="n">
-        <v>45.33</v>
+        <v>45.79</v>
       </c>
       <c r="F490" t="n">
-        <v>9060</v>
+        <v>14820</v>
       </c>
       <c r="G490" t="n">
-        <v>58908.85</v>
+        <v>99026.87</v>
       </c>
       <c r="H490" t="n">
-        <v>2.79</v>
+        <v>6.16</v>
       </c>
       <c r="I490" t="n">
-        <v>-0.48</v>
+        <v>2.26</v>
       </c>
       <c r="J490" t="n">
-        <v>-0.22</v>
+        <v>1.04</v>
       </c>
       <c r="K490" t="n">
-        <v>1.56</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2024-06-14</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>45.86</v>
+        <v>46.83</v>
       </c>
       <c r="C491" t="n">
-        <v>47</v>
+        <v>46.28</v>
       </c>
       <c r="D491" t="n">
-        <v>48.62</v>
+        <v>47.04</v>
       </c>
       <c r="E491" t="n">
-        <v>45.79</v>
+        <v>45.72</v>
       </c>
       <c r="F491" t="n">
-        <v>14820</v>
+        <v>12272</v>
       </c>
       <c r="G491" t="n">
-        <v>99026.87</v>
+        <v>80838.87</v>
       </c>
       <c r="H491" t="n">
-        <v>6.16</v>
+        <v>2.81</v>
       </c>
       <c r="I491" t="n">
-        <v>2.26</v>
+        <v>-1.53</v>
       </c>
       <c r="J491" t="n">
-        <v>1.04</v>
+        <v>-0.72</v>
       </c>
       <c r="K491" t="n">
-        <v>2.56</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>2024-06-14</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>46.83</v>
+        <v>46.08</v>
       </c>
       <c r="C492" t="n">
-        <v>46.28</v>
+        <v>47.14</v>
       </c>
       <c r="D492" t="n">
-        <v>47.04</v>
+        <v>48.32</v>
       </c>
       <c r="E492" t="n">
-        <v>45.72</v>
+        <v>45.6</v>
       </c>
       <c r="F492" t="n">
-        <v>12272</v>
+        <v>13543</v>
       </c>
       <c r="G492" t="n">
-        <v>80838.87</v>
+        <v>90644.24000000001</v>
       </c>
       <c r="H492" t="n">
-        <v>2.81</v>
+        <v>5.88</v>
       </c>
       <c r="I492" t="n">
-        <v>-1.53</v>
+        <v>1.86</v>
       </c>
       <c r="J492" t="n">
-        <v>-0.72</v>
+        <v>0.86</v>
       </c>
       <c r="K492" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>46.08</v>
+        <v>46.93</v>
       </c>
       <c r="C493" t="n">
-        <v>47.14</v>
+        <v>47.71</v>
       </c>
       <c r="D493" t="n">
-        <v>48.32</v>
+        <v>48.93</v>
       </c>
       <c r="E493" t="n">
-        <v>45.6</v>
+        <v>46.66</v>
       </c>
       <c r="F493" t="n">
-        <v>13543</v>
+        <v>10707</v>
       </c>
       <c r="G493" t="n">
-        <v>90644.24000000001</v>
+        <v>73039.62</v>
       </c>
       <c r="H493" t="n">
-        <v>5.88</v>
+        <v>4.82</v>
       </c>
       <c r="I493" t="n">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="J493" t="n">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="K493" t="n">
-        <v>2.34</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>46.93</v>
+        <v>47.67</v>
       </c>
       <c r="C494" t="n">
-        <v>47.71</v>
+        <v>45.93</v>
       </c>
       <c r="D494" t="n">
-        <v>48.93</v>
+        <v>47.77</v>
       </c>
       <c r="E494" t="n">
-        <v>46.66</v>
+        <v>45.67</v>
       </c>
       <c r="F494" t="n">
-        <v>10707</v>
+        <v>10560</v>
       </c>
       <c r="G494" t="n">
-        <v>73039.62</v>
+        <v>69435.21000000001</v>
       </c>
       <c r="H494" t="n">
-        <v>4.82</v>
+        <v>4.4</v>
       </c>
       <c r="I494" t="n">
-        <v>1.21</v>
+        <v>-3.73</v>
       </c>
       <c r="J494" t="n">
-        <v>0.57</v>
+        <v>-1.78</v>
       </c>
       <c r="K494" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>47.67</v>
+        <v>45.72</v>
       </c>
       <c r="C495" t="n">
-        <v>45.93</v>
+        <v>45.97</v>
       </c>
       <c r="D495" t="n">
-        <v>47.77</v>
+        <v>46.69</v>
       </c>
       <c r="E495" t="n">
-        <v>45.67</v>
+        <v>45.22</v>
       </c>
       <c r="F495" t="n">
-        <v>10560</v>
+        <v>11044</v>
       </c>
       <c r="G495" t="n">
-        <v>69435.21000000001</v>
+        <v>72191.48</v>
       </c>
       <c r="H495" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="I495" t="n">
-        <v>-3.73</v>
+        <v>0.09</v>
       </c>
       <c r="J495" t="n">
-        <v>-1.78</v>
+        <v>0.04</v>
       </c>
       <c r="K495" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>45.72</v>
+        <v>45.78</v>
       </c>
       <c r="C496" t="n">
-        <v>45.97</v>
+        <v>44.91</v>
       </c>
       <c r="D496" t="n">
-        <v>46.69</v>
+        <v>46.78</v>
       </c>
       <c r="E496" t="n">
-        <v>45.22</v>
+        <v>44.09</v>
       </c>
       <c r="F496" t="n">
-        <v>11044</v>
+        <v>13474</v>
       </c>
       <c r="G496" t="n">
-        <v>72191.48</v>
+        <v>86162.17</v>
       </c>
       <c r="H496" t="n">
-        <v>3.2</v>
+        <v>5.85</v>
       </c>
       <c r="I496" t="n">
-        <v>0.09</v>
+        <v>-2.31</v>
       </c>
       <c r="J496" t="n">
-        <v>0.04</v>
+        <v>-1.06</v>
       </c>
       <c r="K496" t="n">
-        <v>1.91</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>45.78</v>
+        <v>44.24</v>
       </c>
       <c r="C497" t="n">
-        <v>44.91</v>
+        <v>42.76</v>
       </c>
       <c r="D497" t="n">
-        <v>46.78</v>
+        <v>44.49</v>
       </c>
       <c r="E497" t="n">
-        <v>44.09</v>
+        <v>42.62</v>
       </c>
       <c r="F497" t="n">
-        <v>13474</v>
+        <v>13519</v>
       </c>
       <c r="G497" t="n">
-        <v>86162.17</v>
+        <v>83255.37</v>
       </c>
       <c r="H497" t="n">
-        <v>5.85</v>
+        <v>4.16</v>
       </c>
       <c r="I497" t="n">
-        <v>-2.31</v>
+        <v>-4.79</v>
       </c>
       <c r="J497" t="n">
-        <v>-1.06</v>
+        <v>-2.15</v>
       </c>
       <c r="K497" t="n">
         <v>2.33</v>
@@ -18845,925 +18845,888 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>44.24</v>
+        <v>42.63</v>
       </c>
       <c r="C498" t="n">
-        <v>42.76</v>
+        <v>41.54</v>
       </c>
       <c r="D498" t="n">
-        <v>44.49</v>
+        <v>43.57</v>
       </c>
       <c r="E498" t="n">
-        <v>42.62</v>
+        <v>41.29</v>
       </c>
       <c r="F498" t="n">
-        <v>13519</v>
+        <v>11311</v>
       </c>
       <c r="G498" t="n">
-        <v>83255.37</v>
+        <v>67231.23</v>
       </c>
       <c r="H498" t="n">
-        <v>4.16</v>
+        <v>5.33</v>
       </c>
       <c r="I498" t="n">
-        <v>-4.79</v>
+        <v>-2.85</v>
       </c>
       <c r="J498" t="n">
-        <v>-2.15</v>
+        <v>-1.22</v>
       </c>
       <c r="K498" t="n">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>42.63</v>
+        <v>41.6</v>
       </c>
       <c r="C499" t="n">
-        <v>41.54</v>
+        <v>42.61</v>
       </c>
       <c r="D499" t="n">
-        <v>43.57</v>
+        <v>42.79</v>
       </c>
       <c r="E499" t="n">
-        <v>41.29</v>
+        <v>41.19</v>
       </c>
       <c r="F499" t="n">
-        <v>11311</v>
+        <v>9488</v>
       </c>
       <c r="G499" t="n">
-        <v>67231.23</v>
+        <v>56991.55</v>
       </c>
       <c r="H499" t="n">
-        <v>5.33</v>
+        <v>3.85</v>
       </c>
       <c r="I499" t="n">
-        <v>-2.85</v>
+        <v>2.58</v>
       </c>
       <c r="J499" t="n">
-        <v>-1.22</v>
+        <v>1.07</v>
       </c>
       <c r="K499" t="n">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>41.6</v>
+        <v>42.62</v>
       </c>
       <c r="C500" t="n">
-        <v>42.61</v>
+        <v>42.14</v>
       </c>
       <c r="D500" t="n">
-        <v>42.79</v>
+        <v>43.09</v>
       </c>
       <c r="E500" t="n">
-        <v>41.19</v>
+        <v>42.07</v>
       </c>
       <c r="F500" t="n">
-        <v>9488</v>
+        <v>9573</v>
       </c>
       <c r="G500" t="n">
-        <v>56991.55</v>
+        <v>58075.27</v>
       </c>
       <c r="H500" t="n">
-        <v>3.85</v>
+        <v>2.39</v>
       </c>
       <c r="I500" t="n">
-        <v>2.58</v>
+        <v>-1.1</v>
       </c>
       <c r="J500" t="n">
-        <v>1.07</v>
+        <v>-0.47</v>
       </c>
       <c r="K500" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>42.62</v>
+        <v>42.14</v>
       </c>
       <c r="C501" t="n">
-        <v>42.14</v>
+        <v>41.43</v>
       </c>
       <c r="D501" t="n">
-        <v>43.09</v>
+        <v>42.74</v>
       </c>
       <c r="E501" t="n">
-        <v>42.07</v>
+        <v>41.04</v>
       </c>
       <c r="F501" t="n">
-        <v>9573</v>
+        <v>10163</v>
       </c>
       <c r="G501" t="n">
-        <v>58075.27</v>
+        <v>60878.36</v>
       </c>
       <c r="H501" t="n">
-        <v>2.39</v>
+        <v>4.03</v>
       </c>
       <c r="I501" t="n">
-        <v>-1.1</v>
+        <v>-1.68</v>
       </c>
       <c r="J501" t="n">
-        <v>-0.47</v>
+        <v>-0.71</v>
       </c>
       <c r="K501" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>2024-06-28</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B502" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="C502" t="n">
         <v>42.14</v>
       </c>
-      <c r="C502" t="n">
-        <v>41.43</v>
-      </c>
       <c r="D502" t="n">
-        <v>42.74</v>
+        <v>43.96</v>
       </c>
       <c r="E502" t="n">
-        <v>41.04</v>
+        <v>41.63</v>
       </c>
       <c r="F502" t="n">
-        <v>10163</v>
+        <v>14308</v>
       </c>
       <c r="G502" t="n">
-        <v>60878.36</v>
+        <v>86833.97</v>
       </c>
       <c r="H502" t="n">
-        <v>4.03</v>
+        <v>5.62</v>
       </c>
       <c r="I502" t="n">
-        <v>-1.68</v>
+        <v>1.71</v>
       </c>
       <c r="J502" t="n">
-        <v>-0.71</v>
+        <v>0.71</v>
       </c>
       <c r="K502" t="n">
-        <v>1.75</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>43.57</v>
+        <v>41.95</v>
       </c>
       <c r="C503" t="n">
-        <v>42.14</v>
+        <v>40.5</v>
       </c>
       <c r="D503" t="n">
-        <v>43.96</v>
+        <v>41.97</v>
       </c>
       <c r="E503" t="n">
-        <v>41.63</v>
+        <v>40.27</v>
       </c>
       <c r="F503" t="n">
-        <v>14308</v>
+        <v>14911</v>
       </c>
       <c r="G503" t="n">
-        <v>86833.97</v>
+        <v>87073</v>
       </c>
       <c r="H503" t="n">
-        <v>5.62</v>
+        <v>4.03</v>
       </c>
       <c r="I503" t="n">
-        <v>1.71</v>
+        <v>-3.89</v>
       </c>
       <c r="J503" t="n">
-        <v>0.71</v>
+        <v>-1.64</v>
       </c>
       <c r="K503" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>41.95</v>
+        <v>40.29</v>
       </c>
       <c r="C504" t="n">
-        <v>40.5</v>
+        <v>39.85</v>
       </c>
       <c r="D504" t="n">
-        <v>41.97</v>
+        <v>40.9</v>
       </c>
       <c r="E504" t="n">
-        <v>40.27</v>
+        <v>39.8</v>
       </c>
       <c r="F504" t="n">
-        <v>14911</v>
+        <v>13917</v>
       </c>
       <c r="G504" t="n">
-        <v>87073</v>
+        <v>56034.87</v>
       </c>
       <c r="H504" t="n">
-        <v>4.03</v>
+        <v>2.72</v>
       </c>
       <c r="I504" t="n">
-        <v>-3.89</v>
+        <v>-1.6</v>
       </c>
       <c r="J504" t="n">
-        <v>-1.64</v>
+        <v>-0.65</v>
       </c>
       <c r="K504" t="n">
-        <v>2.57</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>40.29</v>
+        <v>39.91</v>
       </c>
       <c r="C505" t="n">
-        <v>39.85</v>
+        <v>38.28</v>
       </c>
       <c r="D505" t="n">
-        <v>40.9</v>
+        <v>40.1</v>
       </c>
       <c r="E505" t="n">
-        <v>39.8</v>
+        <v>38.18</v>
       </c>
       <c r="F505" t="n">
-        <v>13917</v>
+        <v>17516</v>
       </c>
       <c r="G505" t="n">
-        <v>56034.87</v>
+        <v>68190.53</v>
       </c>
       <c r="H505" t="n">
-        <v>2.72</v>
+        <v>4.82</v>
       </c>
       <c r="I505" t="n">
-        <v>-1.6</v>
+        <v>-3.94</v>
       </c>
       <c r="J505" t="n">
-        <v>-0.65</v>
+        <v>-1.57</v>
       </c>
       <c r="K505" t="n">
-        <v>1.73</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>39.91</v>
+        <v>38.08</v>
       </c>
       <c r="C506" t="n">
-        <v>38.28</v>
+        <v>39.39</v>
       </c>
       <c r="D506" t="n">
-        <v>40.1</v>
+        <v>39.76</v>
       </c>
       <c r="E506" t="n">
-        <v>38.18</v>
+        <v>38.08</v>
       </c>
       <c r="F506" t="n">
-        <v>17516</v>
+        <v>16862</v>
       </c>
       <c r="G506" t="n">
-        <v>68190.53</v>
+        <v>65847.39</v>
       </c>
       <c r="H506" t="n">
-        <v>4.82</v>
+        <v>4.39</v>
       </c>
       <c r="I506" t="n">
-        <v>-3.94</v>
+        <v>2.9</v>
       </c>
       <c r="J506" t="n">
-        <v>-1.57</v>
+        <v>1.11</v>
       </c>
       <c r="K506" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>38.08</v>
+        <v>39.28</v>
       </c>
       <c r="C507" t="n">
-        <v>39.39</v>
+        <v>38.6</v>
       </c>
       <c r="D507" t="n">
-        <v>39.76</v>
+        <v>40</v>
       </c>
       <c r="E507" t="n">
-        <v>38.08</v>
+        <v>38.36</v>
       </c>
       <c r="F507" t="n">
-        <v>16862</v>
+        <v>14757</v>
       </c>
       <c r="G507" t="n">
-        <v>65847.39</v>
+        <v>57606.3</v>
       </c>
       <c r="H507" t="n">
-        <v>4.39</v>
+        <v>4.16</v>
       </c>
       <c r="I507" t="n">
-        <v>2.9</v>
+        <v>-2.01</v>
       </c>
       <c r="J507" t="n">
-        <v>1.11</v>
+        <v>-0.79</v>
       </c>
       <c r="K507" t="n">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-09</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>39.28</v>
+        <v>38.32</v>
       </c>
       <c r="C508" t="n">
-        <v>38.6</v>
+        <v>39.56</v>
       </c>
       <c r="D508" t="n">
-        <v>40</v>
+        <v>39.63</v>
       </c>
       <c r="E508" t="n">
-        <v>38.36</v>
+        <v>38.3</v>
       </c>
       <c r="F508" t="n">
-        <v>14757</v>
+        <v>16106</v>
       </c>
       <c r="G508" t="n">
-        <v>57606.3</v>
+        <v>62809.25</v>
       </c>
       <c r="H508" t="n">
-        <v>4.16</v>
+        <v>3.45</v>
       </c>
       <c r="I508" t="n">
-        <v>-2.01</v>
+        <v>2.49</v>
       </c>
       <c r="J508" t="n">
-        <v>-0.79</v>
+        <v>0.96</v>
       </c>
       <c r="K508" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>38.32</v>
+        <v>39.1</v>
       </c>
       <c r="C509" t="n">
-        <v>39.56</v>
+        <v>39.76</v>
       </c>
       <c r="D509" t="n">
-        <v>39.63</v>
+        <v>40.89</v>
       </c>
       <c r="E509" t="n">
-        <v>38.3</v>
+        <v>38.77</v>
       </c>
       <c r="F509" t="n">
-        <v>16106</v>
+        <v>15588</v>
       </c>
       <c r="G509" t="n">
-        <v>62809.25</v>
+        <v>62597.3</v>
       </c>
       <c r="H509" t="n">
-        <v>3.45</v>
+        <v>5.36</v>
       </c>
       <c r="I509" t="n">
-        <v>2.49</v>
+        <v>0.51</v>
       </c>
       <c r="J509" t="n">
-        <v>0.96</v>
+        <v>0.2</v>
       </c>
       <c r="K509" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>39.1</v>
+        <v>40.35</v>
       </c>
       <c r="C510" t="n">
-        <v>39.76</v>
+        <v>41.43</v>
       </c>
       <c r="D510" t="n">
-        <v>40.89</v>
+        <v>42.2</v>
       </c>
       <c r="E510" t="n">
-        <v>38.77</v>
+        <v>40.35</v>
       </c>
       <c r="F510" t="n">
-        <v>15588</v>
+        <v>20951</v>
       </c>
       <c r="G510" t="n">
-        <v>62597.3</v>
+        <v>86569.42</v>
       </c>
       <c r="H510" t="n">
-        <v>5.36</v>
+        <v>4.65</v>
       </c>
       <c r="I510" t="n">
-        <v>0.51</v>
+        <v>4.2</v>
       </c>
       <c r="J510" t="n">
-        <v>0.2</v>
+        <v>1.67</v>
       </c>
       <c r="K510" t="n">
-        <v>1.93</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>40.35</v>
+        <v>41.9</v>
       </c>
       <c r="C511" t="n">
-        <v>41.43</v>
+        <v>43.06</v>
       </c>
       <c r="D511" t="n">
-        <v>42.2</v>
+        <v>45.02</v>
       </c>
       <c r="E511" t="n">
-        <v>40.35</v>
+        <v>41.9</v>
       </c>
       <c r="F511" t="n">
-        <v>20951</v>
+        <v>34539</v>
       </c>
       <c r="G511" t="n">
-        <v>86569.42</v>
+        <v>150315.62</v>
       </c>
       <c r="H511" t="n">
-        <v>4.65</v>
+        <v>7.53</v>
       </c>
       <c r="I511" t="n">
-        <v>4.2</v>
+        <v>3.93</v>
       </c>
       <c r="J511" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="K511" t="n">
-        <v>2.6</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>41.9</v>
+        <v>42.12</v>
       </c>
       <c r="C512" t="n">
-        <v>43.06</v>
+        <v>41.8</v>
       </c>
       <c r="D512" t="n">
-        <v>45.02</v>
+        <v>42.98</v>
       </c>
       <c r="E512" t="n">
-        <v>41.9</v>
+        <v>41.77</v>
       </c>
       <c r="F512" t="n">
-        <v>34539</v>
+        <v>19960</v>
       </c>
       <c r="G512" t="n">
-        <v>150315.62</v>
+        <v>84316.82000000001</v>
       </c>
       <c r="H512" t="n">
-        <v>7.53</v>
+        <v>2.81</v>
       </c>
       <c r="I512" t="n">
-        <v>3.93</v>
+        <v>-2.93</v>
       </c>
       <c r="J512" t="n">
-        <v>1.63</v>
+        <v>-1.26</v>
       </c>
       <c r="K512" t="n">
-        <v>4.29</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>42.12</v>
+        <v>41.7</v>
       </c>
       <c r="C513" t="n">
-        <v>41.8</v>
+        <v>42.38</v>
       </c>
       <c r="D513" t="n">
-        <v>42.98</v>
+        <v>42.77</v>
       </c>
       <c r="E513" t="n">
-        <v>41.77</v>
+        <v>41.65</v>
       </c>
       <c r="F513" t="n">
-        <v>19960</v>
+        <v>15267</v>
       </c>
       <c r="G513" t="n">
-        <v>84316.82000000001</v>
+        <v>64552.2</v>
       </c>
       <c r="H513" t="n">
-        <v>2.81</v>
+        <v>2.68</v>
       </c>
       <c r="I513" t="n">
-        <v>-2.93</v>
+        <v>1.39</v>
       </c>
       <c r="J513" t="n">
-        <v>-1.26</v>
+        <v>0.58</v>
       </c>
       <c r="K513" t="n">
-        <v>2.48</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>41.7</v>
+        <v>42.9</v>
       </c>
       <c r="C514" t="n">
-        <v>42.38</v>
+        <v>42</v>
       </c>
       <c r="D514" t="n">
-        <v>42.77</v>
+        <v>43.32</v>
       </c>
       <c r="E514" t="n">
-        <v>41.65</v>
+        <v>41.9</v>
       </c>
       <c r="F514" t="n">
-        <v>15267</v>
+        <v>15618</v>
       </c>
       <c r="G514" t="n">
-        <v>64552.2</v>
+        <v>66590.24000000001</v>
       </c>
       <c r="H514" t="n">
-        <v>2.68</v>
+        <v>3.35</v>
       </c>
       <c r="I514" t="n">
-        <v>1.39</v>
+        <v>-0.9</v>
       </c>
       <c r="J514" t="n">
-        <v>0.58</v>
+        <v>-0.38</v>
       </c>
       <c r="K514" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>2024-07-17</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>42.9</v>
+        <v>41.53</v>
       </c>
       <c r="C515" t="n">
-        <v>42</v>
+        <v>43.9</v>
       </c>
       <c r="D515" t="n">
-        <v>43.32</v>
+        <v>45.5</v>
       </c>
       <c r="E515" t="n">
-        <v>41.9</v>
+        <v>40.93</v>
       </c>
       <c r="F515" t="n">
-        <v>15618</v>
+        <v>32519</v>
       </c>
       <c r="G515" t="n">
-        <v>66590.24000000001</v>
+        <v>140948.55</v>
       </c>
       <c r="H515" t="n">
-        <v>3.35</v>
+        <v>10.88</v>
       </c>
       <c r="I515" t="n">
-        <v>-0.9</v>
+        <v>4.52</v>
       </c>
       <c r="J515" t="n">
-        <v>-0.38</v>
+        <v>1.9</v>
       </c>
       <c r="K515" t="n">
-        <v>1.94</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>41.53</v>
+        <v>43.55</v>
       </c>
       <c r="C516" t="n">
-        <v>43.9</v>
+        <v>50.02</v>
       </c>
       <c r="D516" t="n">
-        <v>45.5</v>
+        <v>50.35</v>
       </c>
       <c r="E516" t="n">
-        <v>40.93</v>
+        <v>43.53</v>
       </c>
       <c r="F516" t="n">
-        <v>32519</v>
+        <v>59377</v>
       </c>
       <c r="G516" t="n">
-        <v>140948.55</v>
+        <v>279959.05</v>
       </c>
       <c r="H516" t="n">
-        <v>10.88</v>
+        <v>15.54</v>
       </c>
       <c r="I516" t="n">
-        <v>4.52</v>
+        <v>13.94</v>
       </c>
       <c r="J516" t="n">
-        <v>1.9</v>
+        <v>6.12</v>
       </c>
       <c r="K516" t="n">
-        <v>4.04</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>43.55</v>
+        <v>50</v>
       </c>
       <c r="C517" t="n">
-        <v>50.02</v>
+        <v>48.7</v>
       </c>
       <c r="D517" t="n">
-        <v>50.35</v>
+        <v>50.95</v>
       </c>
       <c r="E517" t="n">
-        <v>43.53</v>
+        <v>48.05</v>
       </c>
       <c r="F517" t="n">
-        <v>59377</v>
+        <v>50083</v>
       </c>
       <c r="G517" t="n">
-        <v>279959.05</v>
+        <v>247500.02</v>
       </c>
       <c r="H517" t="n">
-        <v>15.54</v>
+        <v>5.8</v>
       </c>
       <c r="I517" t="n">
-        <v>13.94</v>
+        <v>-2.64</v>
       </c>
       <c r="J517" t="n">
-        <v>6.12</v>
+        <v>-1.32</v>
       </c>
       <c r="K517" t="n">
-        <v>7.37</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>50</v>
+        <v>48.67</v>
       </c>
       <c r="C518" t="n">
-        <v>48.7</v>
+        <v>47.7</v>
       </c>
       <c r="D518" t="n">
-        <v>50.95</v>
+        <v>48.71</v>
       </c>
       <c r="E518" t="n">
-        <v>48.05</v>
+        <v>47.51</v>
       </c>
       <c r="F518" t="n">
-        <v>50083</v>
+        <v>28582</v>
       </c>
       <c r="G518" t="n">
-        <v>247500.02</v>
+        <v>137321.46</v>
       </c>
       <c r="H518" t="n">
-        <v>5.8</v>
+        <v>2.46</v>
       </c>
       <c r="I518" t="n">
-        <v>-2.64</v>
+        <v>-2.05</v>
       </c>
       <c r="J518" t="n">
-        <v>-1.32</v>
+        <v>-1</v>
       </c>
       <c r="K518" t="n">
-        <v>6.21</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>48.67</v>
+        <v>47.48</v>
       </c>
       <c r="C519" t="n">
-        <v>47.7</v>
+        <v>46.5</v>
       </c>
       <c r="D519" t="n">
-        <v>48.71</v>
+        <v>47.97</v>
       </c>
       <c r="E519" t="n">
-        <v>47.51</v>
+        <v>46.18</v>
       </c>
       <c r="F519" t="n">
-        <v>28582</v>
+        <v>23581</v>
       </c>
       <c r="G519" t="n">
-        <v>137321.46</v>
+        <v>110340.75</v>
       </c>
       <c r="H519" t="n">
-        <v>2.46</v>
+        <v>3.75</v>
       </c>
       <c r="I519" t="n">
-        <v>-2.05</v>
+        <v>-2.52</v>
       </c>
       <c r="J519" t="n">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="K519" t="n">
-        <v>3.55</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>47.48</v>
+        <v>47</v>
       </c>
       <c r="C520" t="n">
-        <v>46.5</v>
+        <v>53.33</v>
       </c>
       <c r="D520" t="n">
-        <v>47.97</v>
+        <v>55.8</v>
       </c>
       <c r="E520" t="n">
-        <v>46.18</v>
+        <v>47</v>
       </c>
       <c r="F520" t="n">
-        <v>23581</v>
+        <v>95311</v>
       </c>
       <c r="G520" t="n">
-        <v>110340.75</v>
+        <v>505347.44</v>
       </c>
       <c r="H520" t="n">
-        <v>3.75</v>
+        <v>18.92</v>
       </c>
       <c r="I520" t="n">
-        <v>-2.52</v>
+        <v>14.69</v>
       </c>
       <c r="J520" t="n">
-        <v>-1.2</v>
+        <v>6.83</v>
       </c>
       <c r="K520" t="n">
-        <v>2.93</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>47</v>
+        <v>52.35</v>
       </c>
       <c r="C521" t="n">
-        <v>53.33</v>
+        <v>50.33</v>
       </c>
       <c r="D521" t="n">
-        <v>55.8</v>
+        <v>52.99</v>
       </c>
       <c r="E521" t="n">
-        <v>47</v>
+        <v>49.88</v>
       </c>
       <c r="F521" t="n">
-        <v>95311</v>
+        <v>66308</v>
       </c>
       <c r="G521" t="n">
-        <v>505347.44</v>
+        <v>340423.5</v>
       </c>
       <c r="H521" t="n">
-        <v>18.92</v>
+        <v>5.83</v>
       </c>
       <c r="I521" t="n">
-        <v>14.69</v>
+        <v>-5.63</v>
       </c>
       <c r="J521" t="n">
-        <v>6.83</v>
+        <v>-3</v>
       </c>
       <c r="K521" t="n">
-        <v>11.83</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>2024-07-26</t>
-        </is>
-      </c>
-      <c r="B522" t="n">
-        <v>52.35</v>
-      </c>
-      <c r="C522" t="n">
-        <v>50.33</v>
-      </c>
-      <c r="D522" t="n">
-        <v>52.99</v>
-      </c>
-      <c r="E522" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="F522" t="n">
-        <v>66308</v>
-      </c>
-      <c r="G522" t="n">
-        <v>340423.5</v>
-      </c>
-      <c r="H522" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="I522" t="n">
-        <v>-5.63</v>
-      </c>
-      <c r="J522" t="n">
-        <v>-3</v>
-      </c>
-      <c r="K522" t="n">
         <v>8.23</v>
       </c>
     </row>
